--- a/N64.xlsx
+++ b/N64.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxtw\PycharmProjects\N64Shopper\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{17A16CEF-8055-45EA-98FE-5957791FC097}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yaes" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Uniques!$A$1:$AD$270</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Yaes!$B$1:$I$474</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcMode="manual"/>
+  <calcPr calcId="179017" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="1283">
   <si>
     <t>Title(s)</t>
   </si>
@@ -4145,7 +4146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -4702,12 +4703,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:R474"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="I454" sqref="I454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4758,22 +4759,22 @@
       </c>
       <c r="N1">
         <f>COUNTA(H:H)-1</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O1" s="21">
         <f>N1/L1</f>
-        <v>0.32462686567164178</v>
+        <v>0.33208955223880599</v>
       </c>
       <c r="P1" s="39" t="s">
         <v>1281</v>
       </c>
       <c r="Q1">
         <f>COUNTA(I:I)-1</f>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R1" s="21">
         <f>Q1/N1</f>
-        <v>0.58620689655172409</v>
+        <v>0.6179775280898876</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4825,7 +4826,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4848,7 +4849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4871,7 +4872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5064,7 +5065,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5077,7 +5078,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5188,7 +5189,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5280,7 +5281,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5303,7 +5304,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5316,7 +5317,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5339,7 +5340,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5368,7 +5369,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5381,7 +5382,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5394,7 +5395,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5417,7 +5418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5440,7 +5441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5453,7 +5454,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5548,7 +5549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5571,7 +5572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5632,7 +5633,7 @@
       </c>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5678,7 +5679,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5724,7 +5725,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5770,7 +5771,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5812,7 +5813,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5877,7 +5878,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5919,7 +5920,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5942,7 +5943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5988,7 +5989,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6001,7 +6002,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6039,7 +6040,7 @@
       </c>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6158,7 +6159,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6342,7 +6343,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6355,7 +6356,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6378,7 +6379,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6430,7 +6431,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6453,7 +6454,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6466,7 +6467,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6504,7 +6505,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6573,7 +6574,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6648,7 +6649,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6671,7 +6672,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6755,7 +6756,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6768,7 +6769,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6813,8 +6814,11 @@
       <c r="G94" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H94" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6827,7 +6831,7 @@
       <c r="F95" s="14"/>
       <c r="G95" s="14"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6850,7 +6854,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6896,7 +6900,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6965,7 +6969,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7045,7 +7049,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7068,7 +7072,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7091,7 +7095,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7114,7 +7118,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7137,7 +7141,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7322,7 +7326,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7345,7 +7349,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7368,7 +7372,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7391,7 +7395,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7585,7 +7589,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7658,7 +7662,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -7687,7 +7691,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -7733,7 +7737,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>135</v>
       </c>
@@ -7815,7 +7819,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139</v>
       </c>
@@ -7833,7 +7837,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>140</v>
       </c>
@@ -7856,7 +7860,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>141</v>
       </c>
@@ -7915,7 +7919,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>144</v>
       </c>
@@ -7928,7 +7932,7 @@
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>145</v>
       </c>
@@ -7941,7 +7945,7 @@
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>146</v>
       </c>
@@ -7977,7 +7981,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>148</v>
       </c>
@@ -8045,6 +8049,9 @@
       <c r="G150" s="14" t="s">
         <v>62</v>
       </c>
+      <c r="H150" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="151" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151">
@@ -8069,7 +8076,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>152</v>
       </c>
@@ -8092,7 +8099,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>153</v>
       </c>
@@ -8115,7 +8122,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>154</v>
       </c>
@@ -8193,7 +8200,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>157</v>
       </c>
@@ -8216,7 +8223,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>158</v>
       </c>
@@ -8239,7 +8246,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>159</v>
       </c>
@@ -8285,7 +8292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>161</v>
       </c>
@@ -8308,7 +8315,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>162</v>
       </c>
@@ -8331,7 +8338,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>163</v>
       </c>
@@ -8361,7 +8368,7 @@
       </c>
       <c r="G164" s="4"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>165</v>
       </c>
@@ -8412,7 +8419,7 @@
       </c>
       <c r="G167" s="6"/>
     </row>
-    <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>168</v>
       </c>
@@ -8451,7 +8458,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>170</v>
       </c>
@@ -8474,7 +8481,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>171</v>
       </c>
@@ -8487,7 +8494,7 @@
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>172</v>
       </c>
@@ -8510,7 +8517,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>173</v>
       </c>
@@ -8546,7 +8553,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>175</v>
       </c>
@@ -8569,7 +8576,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>176</v>
       </c>
@@ -8705,7 +8712,7 @@
       </c>
       <c r="G181" s="14"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>182</v>
       </c>
@@ -8728,7 +8735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>183</v>
       </c>
@@ -8751,7 +8758,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>184</v>
       </c>
@@ -8774,7 +8781,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>185</v>
       </c>
@@ -8849,7 +8856,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>188</v>
       </c>
@@ -8872,7 +8879,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>189</v>
       </c>
@@ -8895,7 +8902,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>190</v>
       </c>
@@ -8908,7 +8915,7 @@
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>191</v>
       </c>
@@ -8931,7 +8938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>192</v>
       </c>
@@ -8954,7 +8961,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>193</v>
       </c>
@@ -8977,7 +8984,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>194</v>
       </c>
@@ -9000,7 +9007,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>195</v>
       </c>
@@ -9023,7 +9030,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>196</v>
       </c>
@@ -9036,7 +9043,7 @@
       <c r="F196" s="14"/>
       <c r="G196" s="14"/>
     </row>
-    <row r="197" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>197</v>
       </c>
@@ -9049,7 +9056,7 @@
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>198</v>
       </c>
@@ -9072,7 +9079,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>199</v>
       </c>
@@ -9095,7 +9102,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>200</v>
       </c>
@@ -9118,7 +9125,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>201</v>
       </c>
@@ -9141,7 +9148,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>202</v>
       </c>
@@ -9154,7 +9161,7 @@
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>203</v>
       </c>
@@ -9200,7 +9207,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>205</v>
       </c>
@@ -9213,7 +9220,7 @@
       <c r="F205" s="14"/>
       <c r="G205" s="14"/>
     </row>
-    <row r="206" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>206</v>
       </c>
@@ -9352,7 +9359,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>212</v>
       </c>
@@ -9375,7 +9382,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>213</v>
       </c>
@@ -9398,7 +9405,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>214</v>
       </c>
@@ -9500,7 +9507,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>219</v>
       </c>
@@ -9523,7 +9530,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>220</v>
       </c>
@@ -9546,7 +9553,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>221</v>
       </c>
@@ -9615,7 +9622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>224</v>
       </c>
@@ -9638,7 +9645,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>225</v>
       </c>
@@ -9661,7 +9668,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>226</v>
       </c>
@@ -9759,7 +9766,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>230</v>
       </c>
@@ -9851,7 +9858,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>234</v>
       </c>
@@ -9864,7 +9871,7 @@
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>235</v>
       </c>
@@ -9887,7 +9894,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>236</v>
       </c>
@@ -9900,7 +9907,7 @@
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>237</v>
       </c>
@@ -9923,7 +9930,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>238</v>
       </c>
@@ -9946,7 +9953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>239</v>
       </c>
@@ -9961,7 +9968,7 @@
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>240</v>
       </c>
@@ -9990,7 +9997,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>241</v>
       </c>
@@ -10049,7 +10056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>244</v>
       </c>
@@ -10072,7 +10079,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>245</v>
       </c>
@@ -10199,7 +10206,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>250</v>
       </c>
@@ -10214,7 +10221,7 @@
       </c>
       <c r="G250" s="14"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>251</v>
       </c>
@@ -10260,7 +10267,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>253</v>
       </c>
@@ -10378,7 +10385,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>258</v>
       </c>
@@ -10468,7 +10475,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>262</v>
       </c>
@@ -10491,7 +10498,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>263</v>
       </c>
@@ -10539,8 +10546,11 @@
       <c r="H264" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I264" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>265</v>
       </c>
@@ -10609,7 +10619,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>268</v>
       </c>
@@ -10799,7 +10809,7 @@
       </c>
       <c r="G276" s="4"/>
     </row>
-    <row r="277" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>277</v>
       </c>
@@ -10822,7 +10832,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>278</v>
       </c>
@@ -10845,7 +10855,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>279</v>
       </c>
@@ -10868,7 +10878,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>280</v>
       </c>
@@ -10891,7 +10901,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>281</v>
       </c>
@@ -10914,7 +10924,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>282</v>
       </c>
@@ -10937,7 +10947,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>283</v>
       </c>
@@ -10960,7 +10970,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>284</v>
       </c>
@@ -10983,7 +10993,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>285</v>
       </c>
@@ -11188,7 +11198,7 @@
       </c>
       <c r="G293" s="4"/>
     </row>
-    <row r="294" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>294</v>
       </c>
@@ -11211,7 +11221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>295</v>
       </c>
@@ -11257,7 +11267,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>297</v>
       </c>
@@ -11280,7 +11290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>298</v>
       </c>
@@ -11329,7 +11339,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>300</v>
       </c>
@@ -11378,7 +11388,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>302</v>
       </c>
@@ -11416,7 +11426,7 @@
       </c>
       <c r="G303" s="4"/>
     </row>
-    <row r="304" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>304</v>
       </c>
@@ -11485,7 +11495,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>307</v>
       </c>
@@ -11508,7 +11518,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>308</v>
       </c>
@@ -11577,6 +11587,9 @@
         <v>250</v>
       </c>
       <c r="H310" t="s">
+        <v>715</v>
+      </c>
+      <c r="I310" t="s">
         <v>715</v>
       </c>
     </row>
@@ -11618,7 +11631,7 @@
       </c>
       <c r="G312" s="4"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>313</v>
       </c>
@@ -11660,7 +11673,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>315</v>
       </c>
@@ -11673,7 +11686,7 @@
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>316</v>
       </c>
@@ -11696,7 +11709,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>317</v>
       </c>
@@ -11709,7 +11722,7 @@
       <c r="F317" s="4"/>
       <c r="G317" s="4"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>318</v>
       </c>
@@ -11832,7 +11845,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>323</v>
       </c>
@@ -11855,7 +11868,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>324</v>
       </c>
@@ -11924,7 +11937,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>327</v>
       </c>
@@ -11947,7 +11960,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>328</v>
       </c>
@@ -11970,7 +11983,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>329</v>
       </c>
@@ -11993,7 +12006,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>330</v>
       </c>
@@ -12016,7 +12029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>331</v>
       </c>
@@ -12183,7 +12196,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>339</v>
       </c>
@@ -12198,7 +12211,7 @@
       <c r="F339" s="4"/>
       <c r="G339" s="4"/>
     </row>
-    <row r="340" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>340</v>
       </c>
@@ -12314,7 +12327,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>345</v>
       </c>
@@ -12337,7 +12350,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>346</v>
       </c>
@@ -12360,7 +12373,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>347</v>
       </c>
@@ -12498,7 +12511,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>353</v>
       </c>
@@ -12568,7 +12581,7 @@
       </c>
       <c r="H355" s="18"/>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>356</v>
       </c>
@@ -12581,7 +12594,7 @@
       <c r="F356" s="14"/>
       <c r="G356" s="14"/>
     </row>
-    <row r="357" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>357</v>
       </c>
@@ -12719,7 +12732,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>363</v>
       </c>
@@ -12788,7 +12801,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>366</v>
       </c>
@@ -12811,7 +12824,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>367</v>
       </c>
@@ -12883,7 +12896,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>370</v>
       </c>
@@ -12906,7 +12919,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>371</v>
       </c>
@@ -12929,7 +12942,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>372</v>
       </c>
@@ -12952,7 +12965,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>373</v>
       </c>
@@ -12988,7 +13001,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>375</v>
       </c>
@@ -13011,7 +13024,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>376</v>
       </c>
@@ -13093,7 +13106,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>380</v>
       </c>
@@ -13106,7 +13119,7 @@
       <c r="F380" s="14"/>
       <c r="G380" s="14"/>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>381</v>
       </c>
@@ -13129,7 +13142,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>382</v>
       </c>
@@ -13152,7 +13165,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>383</v>
       </c>
@@ -13201,7 +13214,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>385</v>
       </c>
@@ -13224,7 +13237,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>386</v>
       </c>
@@ -13341,7 +13354,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>391</v>
       </c>
@@ -13354,7 +13367,7 @@
       <c r="F391" s="4"/>
       <c r="G391" s="4"/>
     </row>
-    <row r="392" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>392</v>
       </c>
@@ -13413,7 +13426,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>395</v>
       </c>
@@ -13436,7 +13449,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>396</v>
       </c>
@@ -13459,7 +13472,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>397</v>
       </c>
@@ -13511,7 +13524,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>399</v>
       </c>
@@ -13534,7 +13547,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>400</v>
       </c>
@@ -13583,7 +13596,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>402</v>
       </c>
@@ -13644,7 +13657,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>405</v>
       </c>
@@ -13667,7 +13680,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>406</v>
       </c>
@@ -13728,7 +13741,7 @@
       </c>
       <c r="G408" s="6"/>
     </row>
-    <row r="409" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>409</v>
       </c>
@@ -13861,7 +13874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>414</v>
       </c>
@@ -14005,7 +14018,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>420</v>
       </c>
@@ -14147,7 +14160,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>426</v>
       </c>
@@ -14176,7 +14189,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>427</v>
       </c>
@@ -14191,7 +14204,7 @@
       <c r="F427" s="6"/>
       <c r="G427" s="6"/>
     </row>
-    <row r="428" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>428</v>
       </c>
@@ -14214,7 +14227,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>429</v>
       </c>
@@ -14314,7 +14327,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>433</v>
       </c>
@@ -14376,7 +14389,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>436</v>
       </c>
@@ -14447,7 +14460,7 @@
       <c r="H438" s="20"/>
       <c r="I438" s="20"/>
     </row>
-    <row r="439" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>439</v>
       </c>
@@ -14485,6 +14498,9 @@
       <c r="H440" t="s">
         <v>715</v>
       </c>
+      <c r="I440" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="441" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441">
@@ -14515,7 +14531,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>442</v>
       </c>
@@ -14538,7 +14554,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>443</v>
       </c>
@@ -14719,7 +14735,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>450</v>
       </c>
@@ -14765,7 +14781,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>452</v>
       </c>
@@ -14813,6 +14829,9 @@
       <c r="H453" t="s">
         <v>715</v>
       </c>
+      <c r="I453" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="454" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454">
@@ -14863,7 +14882,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>456</v>
       </c>
@@ -14886,7 +14905,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>457</v>
       </c>
@@ -14953,7 +14972,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>460</v>
       </c>
@@ -15176,7 +15195,7 @@
       </c>
       <c r="H468" s="20"/>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>469</v>
       </c>
@@ -15192,7 +15211,7 @@
       <c r="G469" s="14"/>
       <c r="H469" s="18"/>
     </row>
-    <row r="470" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>470</v>
       </c>
@@ -15259,7 +15278,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>473</v>
       </c>
@@ -15272,7 +15291,7 @@
       <c r="F473" s="4"/>
       <c r="G473" s="4"/>
     </row>
-    <row r="474" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>474</v>
       </c>
@@ -15296,1119 +15315,1131 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I474"/>
+  <autoFilter ref="B1:I474" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="JP, NA, PAL"/>
+        <filter val="JP, NA, PALAUS"/>
+        <filter val="JP, PAL"/>
+        <filter val="NA, PAL"/>
+        <filter val="NA, PALAUS"/>
+        <filter val="PAL"/>
+        <filter val="PAL, BR"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D4" r:id="rId2" tooltip="Altron" display="https://en.wikipedia.org/wiki/Altron"/>
-    <hyperlink ref="E4" r:id="rId3" tooltip="Altron" display="https://en.wikipedia.org/wiki/Altron"/>
-    <hyperlink ref="C5" r:id="rId4" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="C6" r:id="rId5" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="C7" r:id="rId6" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="C11" r:id="rId7" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="C20" r:id="rId8" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming"/>
-    <hyperlink ref="D20" r:id="rId9" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="E20" r:id="rId10" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C30" r:id="rId11" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D30" r:id="rId12" tooltip="Treasure (company)" display="https://en.wikipedia.org/wiki/Treasure_(company)"/>
-    <hyperlink ref="E30" r:id="rId13" tooltip="Entertainment Software Publishing" display="https://en.wikipedia.org/wiki/Entertainment_Software_Publishing"/>
-    <hyperlink ref="C31" r:id="rId14" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D31" r:id="rId15" tooltip="Taito Corporation" display="https://en.wikipedia.org/wiki/Taito_Corporation"/>
-    <hyperlink ref="E31" r:id="rId16" tooltip="Taito Corporation" display="https://en.wikipedia.org/wiki/Taito_Corporation"/>
-    <hyperlink ref="C38" r:id="rId17" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D38" r:id="rId18" tooltip="Visco Corporation" display="https://en.wikipedia.org/wiki/Visco_Corporation"/>
-    <hyperlink ref="E38" r:id="rId19" tooltip="Visco Corporation" display="https://en.wikipedia.org/wiki/Visco_Corporation"/>
-    <hyperlink ref="C54" r:id="rId20" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming"/>
-    <hyperlink ref="D54" r:id="rId21" tooltip="Racjin" display="https://en.wikipedia.org/wiki/Racjin"/>
-    <hyperlink ref="E54" r:id="rId22" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="C77" r:id="rId23" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D77" r:id="rId24" tooltip="Locomotive Games" display="https://en.wikipedia.org/wiki/Locomotive_Games"/>
-    <hyperlink ref="E77" r:id="rId25" tooltip="Takara" display="https://en.wikipedia.org/wiki/Takara"/>
-    <hyperlink ref="C74" r:id="rId26" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming"/>
-    <hyperlink ref="D74" r:id="rId27" tooltip="Genki (company)" display="https://en.wikipedia.org/wiki/Genki_(company)"/>
-    <hyperlink ref="E74" r:id="rId28" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)"/>
-    <hyperlink ref="C75" r:id="rId29" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D75" r:id="rId30" tooltip="Genki (company)" display="https://en.wikipedia.org/wiki/Genki_(company)"/>
-    <hyperlink ref="E75" r:id="rId31" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)"/>
-    <hyperlink ref="C87" r:id="rId32" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D87" r:id="rId33" tooltip="Noise (company)" display="https://en.wikipedia.org/wiki/Noise_(company)"/>
-    <hyperlink ref="E87" r:id="rId34" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C88" r:id="rId35" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D88" r:id="rId36" tooltip="Noise (company)" display="https://en.wikipedia.org/wiki/Noise_(company)"/>
-    <hyperlink ref="E88" r:id="rId37" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C93" r:id="rId38" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D93" r:id="rId39" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E93" r:id="rId40" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C96" r:id="rId41" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D96" r:id="rId42" tooltip="Taito Corporation" display="https://en.wikipedia.org/wiki/Taito_Corporation"/>
-    <hyperlink ref="E96" r:id="rId43" tooltip="Taito Corporation" display="https://en.wikipedia.org/wiki/Taito_Corporation"/>
-    <hyperlink ref="C97" r:id="rId44" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="E97" r:id="rId45" tooltip="Media Factory" display="https://en.wikipedia.org/wiki/Media_Factory"/>
-    <hyperlink ref="C99" r:id="rId46" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D99" r:id="rId47" tooltip="Athena (company)" display="https://en.wikipedia.org/wiki/Athena_(company)"/>
-    <hyperlink ref="E99" r:id="rId48" tooltip="Athena (company)" display="https://en.wikipedia.org/wiki/Athena_(company)"/>
-    <hyperlink ref="C109" r:id="rId49" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D109" r:id="rId50" tooltip="Epoch Co." display="https://en.wikipedia.org/wiki/Epoch_Co."/>
-    <hyperlink ref="E109" r:id="rId51" tooltip="Epoch Co." display="https://en.wikipedia.org/wiki/Epoch_Co."/>
-    <hyperlink ref="C107" r:id="rId52" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D107" r:id="rId53" tooltip="Epoch Co." display="https://en.wikipedia.org/wiki/Epoch_Co."/>
-    <hyperlink ref="E107" r:id="rId54" tooltip="Epoch Co." display="https://en.wikipedia.org/wiki/Epoch_Co."/>
-    <hyperlink ref="C108" r:id="rId55" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D108" r:id="rId56" tooltip="Epoch Co." display="https://en.wikipedia.org/wiki/Epoch_Co."/>
-    <hyperlink ref="E108" r:id="rId57" tooltip="Epoch Co." display="https://en.wikipedia.org/wiki/Epoch_Co."/>
-    <hyperlink ref="C118" r:id="rId58" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming"/>
-    <hyperlink ref="D118" r:id="rId59" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation"/>
-    <hyperlink ref="E118" r:id="rId60" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation"/>
-    <hyperlink ref="C129" r:id="rId61" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D129" r:id="rId62" tooltip="Namco" display="https://en.wikipedia.org/wiki/Namco"/>
-    <hyperlink ref="E129" r:id="rId63" tooltip="Namco" display="https://en.wikipedia.org/wiki/Namco"/>
-    <hyperlink ref="C370" r:id="rId64" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D370" r:id="rId65" tooltip="Chunsoft" display="https://en.wikipedia.org/wiki/Chunsoft"/>
-    <hyperlink ref="E370" r:id="rId66" tooltip="Chunsoft" display="https://en.wikipedia.org/wiki/Chunsoft"/>
-    <hyperlink ref="C148" r:id="rId67" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D148" r:id="rId68" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="E148" r:id="rId69" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="C152" r:id="rId70" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D152" r:id="rId71" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E152" r:id="rId72" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C157" r:id="rId73" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming"/>
-    <hyperlink ref="D157" r:id="rId74" tooltip="Culture Brain" display="https://en.wikipedia.org/wiki/Culture_Brain"/>
-    <hyperlink ref="E157" r:id="rId75" tooltip="Culture Brain" display="https://en.wikipedia.org/wiki/Culture_Brain"/>
-    <hyperlink ref="C159" r:id="rId76" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="C172" r:id="rId77" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D172" r:id="rId78" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation"/>
-    <hyperlink ref="E172" r:id="rId79" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation"/>
-    <hyperlink ref="C182" r:id="rId80" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D182" r:id="rId81" tooltip="HAL Laboratory" display="https://en.wikipedia.org/wiki/HAL_Laboratory"/>
-    <hyperlink ref="E182" r:id="rId82" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C199" r:id="rId83" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="E199" r:id="rId84" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)"/>
-    <hyperlink ref="C200" r:id="rId85" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D200" r:id="rId86" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="E200" r:id="rId87" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="C183" r:id="rId88" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D183" r:id="rId89" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="E183" r:id="rId90" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C201" r:id="rId91" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D201" r:id="rId92" tooltip="ASCII (company)" display="https://en.wikipedia.org/wiki/ASCII_(company)"/>
-    <hyperlink ref="E201" r:id="rId93" tooltip="ASCII (company)" display="https://en.wikipedia.org/wiki/ASCII_(company)"/>
-    <hyperlink ref="C184" r:id="rId94" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D184" r:id="rId95" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E184" r:id="rId96" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C188" r:id="rId97" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D188" r:id="rId98" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E188" r:id="rId99" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C189" r:id="rId100" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming"/>
-    <hyperlink ref="D189" r:id="rId101" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E189" r:id="rId102" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C192" r:id="rId103" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D192" r:id="rId104" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E192" r:id="rId105" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C193" r:id="rId106" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D193" r:id="rId107" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E193" r:id="rId108" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C194" r:id="rId109" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D194" r:id="rId110" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E194" r:id="rId111" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C191" r:id="rId112" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D191" r:id="rId113" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E191" r:id="rId114" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C195" r:id="rId115" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming"/>
-    <hyperlink ref="D195" r:id="rId116" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E195" r:id="rId117" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C198" r:id="rId118" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D198" r:id="rId119" tooltip="Takara" display="https://en.wikipedia.org/wiki/Takara"/>
-    <hyperlink ref="E198" r:id="rId120" tooltip="Takara" display="https://en.wikipedia.org/wiki/Takara"/>
-    <hyperlink ref="C206" r:id="rId121" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="E206" r:id="rId122" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)"/>
-    <hyperlink ref="C212" r:id="rId123" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D212" r:id="rId124" tooltip="Yuke's" display="https://en.wikipedia.org/wiki/Yuke%27s"/>
-    <hyperlink ref="E212" r:id="rId125" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="C224" r:id="rId126" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="E224" r:id="rId127" tooltip="Koei" display="https://en.wikipedia.org/wiki/Koei"/>
-    <hyperlink ref="C225" r:id="rId128" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D225" r:id="rId129" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)"/>
-    <hyperlink ref="E225" r:id="rId130" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)"/>
-    <hyperlink ref="C226" r:id="rId131" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming"/>
-    <hyperlink ref="D226" r:id="rId132" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E226" r:id="rId133" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C230" r:id="rId134" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D230" r:id="rId135" tooltip="Tokyo Electron" display="https://en.wikipedia.org/wiki/Tokyo_Electron"/>
-    <hyperlink ref="E230" r:id="rId136" tooltip="Tokyo Electron" display="https://en.wikipedia.org/wiki/Tokyo_Electron"/>
-    <hyperlink ref="C237" r:id="rId137" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D237" r:id="rId138" tooltip="Technology and Entertainment Software" display="https://en.wikipedia.org/wiki/Technology_and_Entertainment_Software"/>
-    <hyperlink ref="E237" r:id="rId139" tooltip="Technology and Entertainment Software" display="https://en.wikipedia.org/wiki/Technology_and_Entertainment_Software"/>
-    <hyperlink ref="C253" r:id="rId140" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D253" r:id="rId141" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation"/>
-    <hyperlink ref="E253" r:id="rId142" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation"/>
-    <hyperlink ref="C278" r:id="rId143" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D278" r:id="rId144" tooltip="Namco Bandai Games" display="https://en.wikipedia.org/wiki/Namco_Bandai_Games"/>
-    <hyperlink ref="E278" r:id="rId145" tooltip="Bandai" display="https://en.wikipedia.org/wiki/Bandai"/>
-    <hyperlink ref="C279" r:id="rId146" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D279" r:id="rId147" tooltip="Yuke's" display="https://en.wikipedia.org/wiki/Yuke%27s"/>
-    <hyperlink ref="E279" r:id="rId148" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="C280" r:id="rId149" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D280" r:id="rId150" tooltip="Yuke's" display="https://en.wikipedia.org/wiki/Yuke%27s"/>
-    <hyperlink ref="E280" r:id="rId151" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="C295" r:id="rId152" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D295" r:id="rId153" tooltip="Culture Brain" display="https://en.wikipedia.org/wiki/Culture_Brain"/>
-    <hyperlink ref="E295" r:id="rId154" tooltip="Culture Brain" display="https://en.wikipedia.org/wiki/Culture_Brain"/>
-    <hyperlink ref="C297" r:id="rId155" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D297" r:id="rId156" tooltip="Pack-In-Video" display="https://en.wikipedia.org/wiki/Pack-In-Video"/>
-    <hyperlink ref="E297" r:id="rId157" tooltip="Pack-In-Video" display="https://en.wikipedia.org/wiki/Pack-In-Video"/>
-    <hyperlink ref="C298" r:id="rId158" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D298" r:id="rId159" tooltip="VIS Entertainment" display="https://en.wikipedia.org/wiki/VIS_Entertainment"/>
-    <hyperlink ref="E298" r:id="rId160" tooltip="VIS Entertainment" display="https://en.wikipedia.org/wiki/VIS_Entertainment"/>
-    <hyperlink ref="C302" r:id="rId161" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="C304" r:id="rId162" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D304" r:id="rId163" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation"/>
-    <hyperlink ref="E304" r:id="rId164" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation"/>
-    <hyperlink ref="C307" r:id="rId165" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D307" r:id="rId166" tooltip="Telenet Japan" display="https://en.wikipedia.org/wiki/Telenet_Japan"/>
-    <hyperlink ref="E307" r:id="rId167" tooltip="Telenet Japan" display="https://en.wikipedia.org/wiki/Telenet_Japan"/>
-    <hyperlink ref="C308" r:id="rId168" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D308" r:id="rId169" tooltip="Bandai" display="https://en.wikipedia.org/wiki/Bandai"/>
-    <hyperlink ref="E308" r:id="rId170" tooltip="Bandai" display="https://en.wikipedia.org/wiki/Bandai"/>
-    <hyperlink ref="C316" r:id="rId171" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D316" r:id="rId172" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="E316" r:id="rId173" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C324" r:id="rId174" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D324" r:id="rId175" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="E324" r:id="rId176" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="C327" r:id="rId177" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D327" r:id="rId178" tooltip="Athena (company)" display="https://en.wikipedia.org/wiki/Athena_(company)"/>
-    <hyperlink ref="E327" r:id="rId179" tooltip="Athena (company)" display="https://en.wikipedia.org/wiki/Athena_(company)"/>
-    <hyperlink ref="C328" r:id="rId180" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D328" r:id="rId181" tooltip="Culture Brain" display="https://en.wikipedia.org/wiki/Culture_Brain"/>
-    <hyperlink ref="E328" r:id="rId182" tooltip="Culture Brain" display="https://en.wikipedia.org/wiki/Culture_Brain"/>
-    <hyperlink ref="C329" r:id="rId183" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D329" r:id="rId184" tooltip="Compile (publisher)" display="https://en.wikipedia.org/wiki/Compile_(publisher)"/>
-    <hyperlink ref="E329" r:id="rId185" tooltip="Compile (publisher)" display="https://en.wikipedia.org/wiki/Compile_(publisher)"/>
-    <hyperlink ref="C330" r:id="rId186" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D330" r:id="rId187" tooltip="Compile (publisher)" display="https://en.wikipedia.org/wiki/Compile_(publisher)"/>
-    <hyperlink ref="E330" r:id="rId188" tooltip="Compile (publisher)" display="https://en.wikipedia.org/wiki/Compile_(publisher)"/>
-    <hyperlink ref="C353" r:id="rId189" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D353" r:id="rId190" tooltip="Red Entertainment" display="https://en.wikipedia.org/wiki/Red_Entertainment"/>
-    <hyperlink ref="E353" r:id="rId191" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="C363" r:id="rId192" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming"/>
-    <hyperlink ref="D363" r:id="rId193" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation"/>
-    <hyperlink ref="E363" r:id="rId194" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation"/>
-    <hyperlink ref="C367" r:id="rId195" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D367" r:id="rId196" tooltip="Culture Brain" display="https://en.wikipedia.org/wiki/Culture_Brain"/>
-    <hyperlink ref="E367" r:id="rId197" tooltip="Culture Brain" display="https://en.wikipedia.org/wiki/Culture_Brain"/>
-    <hyperlink ref="C371" r:id="rId198" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D371" r:id="rId199" tooltip="Genki (company)" display="https://en.wikipedia.org/wiki/Genki_(company)"/>
-    <hyperlink ref="E371" r:id="rId200" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)"/>
-    <hyperlink ref="C372" r:id="rId201" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D372" r:id="rId202" tooltip="Treasure (company)" display="https://en.wikipedia.org/wiki/Treasure_(company)"/>
-    <hyperlink ref="E372" r:id="rId203" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C396" r:id="rId204" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D396" r:id="rId205" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="E396" r:id="rId206" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="C399" r:id="rId207" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D399" r:id="rId208" tooltip="Banpresto" display="https://en.wikipedia.org/wiki/Banpresto"/>
-    <hyperlink ref="E399" r:id="rId209" tooltip="Banpresto" display="https://en.wikipedia.org/wiki/Banpresto"/>
-    <hyperlink ref="C400" r:id="rId210" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D400" r:id="rId211" tooltip="Banpresto" display="https://en.wikipedia.org/wiki/Banpresto"/>
-    <hyperlink ref="E400" r:id="rId212" tooltip="Banpresto" display="https://en.wikipedia.org/wiki/Banpresto"/>
-    <hyperlink ref="C405" r:id="rId213" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D405" r:id="rId214" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E405" r:id="rId215" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C406" r:id="rId216" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D406" r:id="rId217" tooltip="Bandai" display="https://en.wikipedia.org/wiki/Bandai"/>
-    <hyperlink ref="E406" r:id="rId218" tooltip="Bandai" display="https://en.wikipedia.org/wiki/Bandai"/>
-    <hyperlink ref="C409" r:id="rId219" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="E409" r:id="rId220" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation"/>
-    <hyperlink ref="C436" r:id="rId221" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D436" r:id="rId222" tooltip="Yuke's" display="https://en.wikipedia.org/wiki/Yuke%27s"/>
-    <hyperlink ref="E436" r:id="rId223" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="C442" r:id="rId224" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D442" r:id="rId225" tooltip="Syn Sophia" display="https://en.wikipedia.org/wiki/Syn_Sophia"/>
-    <hyperlink ref="E442" r:id="rId226" tooltip="Asmik Ace Entertainment" display="https://en.wikipedia.org/wiki/Asmik_Ace_Entertainment"/>
-    <hyperlink ref="C443" r:id="rId227" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D443" r:id="rId228" tooltip="Syn Sophia" display="https://en.wikipedia.org/wiki/Syn_Sophia"/>
-    <hyperlink ref="E443" r:id="rId229" tooltip="Asmik Ace Entertainment" display="https://en.wikipedia.org/wiki/Asmik_Ace_Entertainment"/>
-    <hyperlink ref="C460" r:id="rId230" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming"/>
-    <hyperlink ref="D460" r:id="rId231" tooltip="Givro" display="https://en.wikipedia.org/wiki/Givro"/>
-    <hyperlink ref="E460" r:id="rId232" tooltip="Enix" display="https://en.wikipedia.org/wiki/Enix"/>
-    <hyperlink ref="C470" r:id="rId233" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D470" r:id="rId234" tooltip="Athena (company)" display="https://en.wikipedia.org/wiki/Athena_(company)"/>
-    <hyperlink ref="E470" r:id="rId235" tooltip="Athena (company)" display="https://en.wikipedia.org/wiki/Athena_(company)"/>
-    <hyperlink ref="C474" r:id="rId236" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="E474" r:id="rId237" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)"/>
-    <hyperlink ref="C45" r:id="rId238" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D45" r:id="rId239" tooltip="Eutechnyx" display="https://en.wikipedia.org/wiki/Eutechnyx"/>
-    <hyperlink ref="E45" r:id="rId240" tooltip="SouthPeak Games" display="https://en.wikipedia.org/wiki/SouthPeak_Games"/>
-    <hyperlink ref="C55" r:id="rId241" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D55" r:id="rId242" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="C133" r:id="rId243" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D133" r:id="rId244" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)"/>
-    <hyperlink ref="E133" r:id="rId245" tooltip="SouthPeak Games" display="https://en.wikipedia.org/wiki/SouthPeak_Games"/>
-    <hyperlink ref="C158" r:id="rId246" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="E158" r:id="rId247" tooltip="Natsume (company)" display="https://en.wikipedia.org/wiki/Natsume_(company)"/>
-    <hyperlink ref="C162" r:id="rId248" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D162" r:id="rId249" tooltip="Ambrella" display="https://en.wikipedia.org/wiki/Ambrella"/>
-    <hyperlink ref="E162" r:id="rId250" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C238" r:id="rId251" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D238" r:id="rId252" tooltip="Capcom" display="https://en.wikipedia.org/wiki/Capcom"/>
-    <hyperlink ref="E238" r:id="rId253" tooltip="Capcom" display="https://en.wikipedia.org/wiki/Capcom"/>
-    <hyperlink ref="C300" r:id="rId254" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D300" r:id="rId255" tooltip="Quest Corporation" display="https://en.wikipedia.org/wiki/Quest_Corporation"/>
-    <hyperlink ref="E300" r:id="rId256" tooltip="Atlus" display="https://en.wikipedia.org/wiki/Atlus"/>
-    <hyperlink ref="C340" r:id="rId257" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D340" r:id="rId258" tooltip="Genki (company)" display="https://en.wikipedia.org/wiki/Genki_(company)"/>
-    <hyperlink ref="E340" r:id="rId259" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)"/>
-    <hyperlink ref="E339" r:id="rId260" tooltip="SouthPeak Games" display="https://en.wikipedia.org/wiki/SouthPeak_Games"/>
-    <hyperlink ref="C385" r:id="rId261" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D385" r:id="rId262" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="E385" r:id="rId263" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="C397" r:id="rId264" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D397" r:id="rId265" tooltip="Athena (company)" display="https://en.wikipedia.org/wiki/Athena_(company)"/>
-    <hyperlink ref="E397" r:id="rId266" tooltip="UFO Interactive Games" display="https://en.wikipedia.org/wiki/UFO_Interactive_Games"/>
-    <hyperlink ref="C428" r:id="rId267" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D428" r:id="rId268" tooltip="Pacific Coast Power &amp; Light" display="https://en.wikipedia.org/wiki/Pacific_Coast_Power_%26_Light"/>
-    <hyperlink ref="E428" r:id="rId269" tooltip="BAM! Entertainment" display="https://en.wikipedia.org/wiki/BAM!_Entertainment"/>
-    <hyperlink ref="E427" r:id="rId270" tooltip="Takara" display="https://en.wikipedia.org/wiki/Takara"/>
-    <hyperlink ref="C3" r:id="rId271" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D3" r:id="rId272" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="E3" r:id="rId273" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C9" r:id="rId274" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D9" r:id="rId275" tooltip="Paradigm Entertainment" display="https://en.wikipedia.org/wiki/Paradigm_Entertainment"/>
-    <hyperlink ref="E9" r:id="rId276" tooltip="Video System" display="https://en.wikipedia.org/wiki/Video_System"/>
-    <hyperlink ref="C10" r:id="rId277" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D10" r:id="rId278" tooltip="Pacific Coast Power &amp; Light" display="https://en.wikipedia.org/wiki/Pacific_Coast_Power_%26_Light"/>
-    <hyperlink ref="E10" r:id="rId279" tooltip="ASCII (company)" display="https://en.wikipedia.org/wiki/ASCII_(company)"/>
-    <hyperlink ref="C27" r:id="rId280" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D27" r:id="rId281" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software"/>
-    <hyperlink ref="E27" r:id="rId282" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software"/>
-    <hyperlink ref="E402" r:id="rId283" tooltip="Taito Corporation" display="https://en.wikipedia.org/wiki/Taito_Corporation"/>
-    <hyperlink ref="C34" r:id="rId284" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D34" r:id="rId285" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)"/>
-    <hyperlink ref="E34" r:id="rId286" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C35" r:id="rId287" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D35" r:id="rId288" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)"/>
-    <hyperlink ref="E35" r:id="rId289" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C44" r:id="rId290" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D44" r:id="rId291" tooltip="Paradigm Entertainment" display="https://en.wikipedia.org/wiki/Paradigm_Entertainment"/>
-    <hyperlink ref="E44" r:id="rId292" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C48" r:id="rId293" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D48" r:id="rId294" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)"/>
-    <hyperlink ref="E48" r:id="rId295" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C53" r:id="rId296" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D53" r:id="rId297" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="E53" r:id="rId298" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C56" r:id="rId299" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D56" r:id="rId300" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="E56" r:id="rId301" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C61" r:id="rId302" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D61" r:id="rId303" tooltip="Argonaut Software" display="https://en.wikipedia.org/wiki/Argonaut_Software"/>
-    <hyperlink ref="E61" r:id="rId304" tooltip="Ubi Soft Entertainment" display="https://en.wikipedia.org/wiki/Ubi_Soft_Entertainment"/>
-    <hyperlink ref="C64" r:id="rId305" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="E64" r:id="rId306" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C67" r:id="rId307" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D67" r:id="rId308" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E67" r:id="rId309" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C68" r:id="rId310" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D68" r:id="rId311" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E68" r:id="rId312" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C70" r:id="rId313" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="E70" r:id="rId314" tooltip="Sunsoft" display="https://en.wikipedia.org/wiki/Sunsoft"/>
-    <hyperlink ref="C71" r:id="rId315" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="E71" r:id="rId316" tooltip="Sunsoft" display="https://en.wikipedia.org/wiki/Sunsoft"/>
-    <hyperlink ref="C76" r:id="rId317" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D76" r:id="rId318" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation"/>
-    <hyperlink ref="E76" r:id="rId319" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="E457" r:id="rId320" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation"/>
-    <hyperlink ref="C91" r:id="rId321" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D91" r:id="rId322" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco"/>
-    <hyperlink ref="E91" r:id="rId323" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco"/>
-    <hyperlink ref="C94" r:id="rId324" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D94" r:id="rId325" tooltip="Kronos Digital Entertainment" display="https://en.wikipedia.org/wiki/Kronos_Digital_Entertainment"/>
-    <hyperlink ref="E94" r:id="rId326" tooltip="Vic Tokai" display="https://en.wikipedia.org/wiki/Vic_Tokai"/>
-    <hyperlink ref="C100" r:id="rId327" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D100" r:id="rId328" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)"/>
-    <hyperlink ref="E100" r:id="rId329" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)"/>
-    <hyperlink ref="C105" r:id="rId330" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D105" r:id="rId331" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)"/>
-    <hyperlink ref="E105" r:id="rId332" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C106" r:id="rId333" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D106" r:id="rId334" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="E106" r:id="rId335" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C111" r:id="rId336" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D111" r:id="rId337" tooltip="Produce!" display="https://en.wikipedia.org/wiki/Produce!"/>
-    <hyperlink ref="C122" r:id="rId338" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D122" r:id="rId339" tooltip="Left Field Productions" display="https://en.wikipedia.org/wiki/Left_Field_Productions"/>
-    <hyperlink ref="E122" r:id="rId340" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C123" r:id="rId341" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D123" r:id="rId342" tooltip="Acclaim Cheltenham" display="https://en.wikipedia.org/wiki/Acclaim_Cheltenham"/>
-    <hyperlink ref="E123" r:id="rId343" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C124" r:id="rId344" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D124" r:id="rId345" tooltip="Acclaim Cheltenham" display="https://en.wikipedia.org/wiki/Acclaim_Cheltenham"/>
-    <hyperlink ref="E124" r:id="rId346" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C127" r:id="rId347" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D127" r:id="rId348" tooltip="Paradigm Entertainment" display="https://en.wikipedia.org/wiki/Paradigm_Entertainment"/>
-    <hyperlink ref="E127" r:id="rId349" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C142" r:id="rId350" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D142" r:id="rId351" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="E142" r:id="rId352" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C125" r:id="rId353" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D125" r:id="rId354" tooltip="Human Entertainment" display="https://en.wikipedia.org/wiki/Human_Entertainment"/>
-    <hyperlink ref="E125" r:id="rId355" tooltip="Ubi Soft Entertainment" display="https://en.wikipedia.org/wiki/Ubi_Soft_Entertainment"/>
-    <hyperlink ref="C132" r:id="rId356" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D132" r:id="rId357" tooltip="EA Canada" display="https://en.wikipedia.org/wiki/EA_Canada"/>
-    <hyperlink ref="E132" r:id="rId358" tooltip="EA Sports" display="https://en.wikipedia.org/wiki/EA_Sports"/>
-    <hyperlink ref="C134" r:id="rId359" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D134" r:id="rId360" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)"/>
-    <hyperlink ref="C137" r:id="rId361" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D137" r:id="rId362" tooltip="Culture Brain" display="https://en.wikipedia.org/wiki/Culture_Brain"/>
-    <hyperlink ref="E137" r:id="rId363" tooltip="Natsume (company)" display="https://en.wikipedia.org/wiki/Natsume_(company)"/>
-    <hyperlink ref="C143" r:id="rId364" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D143" r:id="rId365" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E143" r:id="rId366" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C147" r:id="rId367" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D147" r:id="rId368" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="E147" r:id="rId369" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C153" r:id="rId370" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D153" r:id="rId371" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E153" r:id="rId372" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C155" r:id="rId373" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D155" r:id="rId374" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)"/>
-    <hyperlink ref="E155" r:id="rId375" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C156" r:id="rId376" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D156" r:id="rId377" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)"/>
-    <hyperlink ref="E156" r:id="rId378" tooltip="Ocean Software" display="https://en.wikipedia.org/wiki/Ocean_Software"/>
-    <hyperlink ref="E79" r:id="rId379" tooltip="Infogrames Multimedia" display="https://en.wikipedia.org/wiki/Infogrames_Multimedia"/>
-    <hyperlink ref="C161" r:id="rId380" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D161" r:id="rId381" tooltip="Software Creations (UK)" display="https://en.wikipedia.org/wiki/Software_Creations_(UK)"/>
-    <hyperlink ref="E161" r:id="rId382" tooltip="GT Interactive Software" display="https://en.wikipedia.org/wiki/GT_Interactive_Software"/>
-    <hyperlink ref="C169" r:id="rId383" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D169" r:id="rId384" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E169" r:id="rId385" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C174" r:id="rId386" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D174" r:id="rId387" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment"/>
-    <hyperlink ref="E174" r:id="rId388" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C179" r:id="rId389" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D179" r:id="rId390" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E179" r:id="rId391" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C177" r:id="rId392" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D177" r:id="rId393" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E177" r:id="rId394" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C178" r:id="rId395" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D178" r:id="rId396" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E178" r:id="rId397" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C180" r:id="rId398" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D180" r:id="rId399" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E180" r:id="rId400" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C187" r:id="rId401" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D187" r:id="rId402" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)"/>
-    <hyperlink ref="E187" r:id="rId403" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)"/>
-    <hyperlink ref="C207" r:id="rId404" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D207" r:id="rId405" tooltip="HAL Laboratory" display="https://en.wikipedia.org/wiki/HAL_Laboratory"/>
-    <hyperlink ref="E207" r:id="rId406" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C208" r:id="rId407" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D208" r:id="rId408" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco"/>
-    <hyperlink ref="E208" r:id="rId409" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco"/>
-    <hyperlink ref="C411" r:id="rId410" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D411" r:id="rId411" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="E411" r:id="rId412" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C412" r:id="rId413" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D412" r:id="rId414" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="E412" r:id="rId415" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C215" r:id="rId416" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D215" r:id="rId417" tooltip="Big Bang" display="https://en.wikipedia.org/wiki/Big_Bang"/>
-    <hyperlink ref="E215" r:id="rId418" tooltip="Infogrames" display="https://en.wikipedia.org/wiki/Infogrames"/>
-    <hyperlink ref="C223" r:id="rId419" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D223" r:id="rId420" tooltip="Capcom" display="https://en.wikipedia.org/wiki/Capcom"/>
-    <hyperlink ref="C228" r:id="rId421" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D228" r:id="rId422" tooltip="Camelot Software Planning" display="https://en.wikipedia.org/wiki/Camelot_Software_Planning"/>
-    <hyperlink ref="E228" r:id="rId423" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C229" r:id="rId424" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming"/>
-    <hyperlink ref="D229" r:id="rId425" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="E229" r:id="rId426" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C231" r:id="rId427" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D231" r:id="rId428" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="E231" r:id="rId429" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C232" r:id="rId430" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D232" r:id="rId431" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="E232" r:id="rId432" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C233" r:id="rId433" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D233" r:id="rId434" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="E233" r:id="rId435" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C235" r:id="rId436" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D235" r:id="rId437" tooltip="Camelot Software Planning" display="https://en.wikipedia.org/wiki/Camelot_Software_Planning"/>
-    <hyperlink ref="E235" r:id="rId438" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C242" r:id="rId439" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D242" r:id="rId440" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)"/>
-    <hyperlink ref="E242" r:id="rId441" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C247" r:id="rId442" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D247" r:id="rId443" tooltip="Treasure (company)" display="https://en.wikipedia.org/wiki/Treasure_(company)"/>
-    <hyperlink ref="E247" r:id="rId444" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C257" r:id="rId445" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D257" r:id="rId446" tooltip="Genki (company)" display="https://en.wikipedia.org/wiki/Genki_(company)"/>
-    <hyperlink ref="C260" r:id="rId447" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D260" r:id="rId448" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E260" r:id="rId449" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C261" r:id="rId450" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D261" r:id="rId451" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E261" r:id="rId452" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C269" r:id="rId453" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D269" r:id="rId454" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E269" r:id="rId455" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C270" r:id="rId456" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D270" r:id="rId457" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E270" r:id="rId458" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C301" r:id="rId459" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D301" r:id="rId460" tooltip="Treyarch" display="https://en.wikipedia.org/wiki/Treyarch"/>
-    <hyperlink ref="E301" r:id="rId461" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C305" r:id="rId462" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D305" r:id="rId463" tooltip="Intelligent Systems" display="https://en.wikipedia.org/wiki/Intelligent_Systems"/>
-    <hyperlink ref="E305" r:id="rId464" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C309" r:id="rId465" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D309" r:id="rId466" tooltip="Takara" display="https://en.wikipedia.org/wiki/Takara"/>
-    <hyperlink ref="E309" r:id="rId467" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ"/>
-    <hyperlink ref="C310" r:id="rId468" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D310" r:id="rId469" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)"/>
-    <hyperlink ref="E310" r:id="rId470" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)"/>
-    <hyperlink ref="C314" r:id="rId471" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming"/>
-    <hyperlink ref="E314" r:id="rId472" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C320" r:id="rId473" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D320" r:id="rId474" tooltip="HAL Laboratory" display="https://en.wikipedia.org/wiki/HAL_Laboratory"/>
-    <hyperlink ref="E320" r:id="rId475" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C321" r:id="rId476" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D321" r:id="rId477" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="E321" r:id="rId478" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C322" r:id="rId479" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D322" r:id="rId480" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="E322" r:id="rId481" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C334" r:id="rId482" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D334" r:id="rId483" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)"/>
-    <hyperlink ref="E334" r:id="rId484" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)"/>
-    <hyperlink ref="E164" r:id="rId485" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ"/>
-    <hyperlink ref="E121" r:id="rId486" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C348" r:id="rId487" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D348" r:id="rId488" tooltip="Angel Studios" display="https://en.wikipedia.org/wiki/Angel_Studios"/>
-    <hyperlink ref="C369" r:id="rId489" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D369" r:id="rId490" tooltip="ICOM Simulations" display="https://en.wikipedia.org/wiki/ICOM_Simulations"/>
-    <hyperlink ref="E369" r:id="rId491" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco"/>
-    <hyperlink ref="C374" r:id="rId492" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D374" r:id="rId493" tooltip="Racjin" display="https://en.wikipedia.org/wiki/Racjin"/>
-    <hyperlink ref="E374" r:id="rId494" tooltip="Atlus" display="https://en.wikipedia.org/wiki/Atlus"/>
-    <hyperlink ref="C384" r:id="rId495" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D384" r:id="rId496" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="E384" r:id="rId497" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C387" r:id="rId498" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D387" r:id="rId499" tooltip="LucasArts" display="https://en.wikipedia.org/wiki/LucasArts"/>
-    <hyperlink ref="E387" r:id="rId500" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C389" r:id="rId501" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D389" r:id="rId502" tooltip="Factor 5" display="https://en.wikipedia.org/wiki/Factor_5"/>
-    <hyperlink ref="E389" r:id="rId503" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C390" r:id="rId504" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming"/>
-    <hyperlink ref="D390" r:id="rId505" tooltip="LucasArts" display="https://en.wikipedia.org/wiki/LucasArts"/>
-    <hyperlink ref="E390" r:id="rId506" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C398" r:id="rId507" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming"/>
-    <hyperlink ref="D398" r:id="rId508" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="E398" r:id="rId509" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C401" r:id="rId510" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D401" r:id="rId511" tooltip="HAL Laboratory" display="https://en.wikipedia.org/wiki/HAL_Laboratory"/>
-    <hyperlink ref="E401" r:id="rId512" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C422" r:id="rId513" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D422" r:id="rId514" tooltip="Snowblind Studios" display="https://en.wikipedia.org/wiki/Snowblind_Studios"/>
-    <hyperlink ref="E422" r:id="rId515" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco"/>
-    <hyperlink ref="C423" r:id="rId516" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D423" r:id="rId517" tooltip="Snowblind Studios" display="https://en.wikipedia.org/wiki/Snowblind_Studios"/>
-    <hyperlink ref="E423" r:id="rId518" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco"/>
-    <hyperlink ref="C424" r:id="rId519" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D424" r:id="rId520" tooltip="Boss Game Studios" display="https://en.wikipedia.org/wiki/Boss_Game_Studios"/>
-    <hyperlink ref="E424" r:id="rId521" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C425" r:id="rId522" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D425" r:id="rId523" tooltip="Saffire Corporation" display="https://en.wikipedia.org/wiki/Saffire_Corporation"/>
-    <hyperlink ref="E425" r:id="rId524" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco"/>
-    <hyperlink ref="C432" r:id="rId525" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D432" r:id="rId526" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment"/>
-    <hyperlink ref="E432" r:id="rId527" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C430" r:id="rId528" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D430" r:id="rId529" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment"/>
-    <hyperlink ref="E430" r:id="rId530" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C435" r:id="rId531" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D435" r:id="rId532" tooltip="Boss Game Studios" display="https://en.wikipedia.org/wiki/Boss_Game_Studios"/>
-    <hyperlink ref="E435" r:id="rId533" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C444" r:id="rId534" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D444" r:id="rId535" tooltip="Eden Studios" display="https://en.wikipedia.org/wiki/Eden_Studios"/>
-    <hyperlink ref="E444" r:id="rId536" tooltip="Infogrames Entertainment, SA" display="https://en.wikipedia.org/wiki/Infogrames_Entertainment,_SA"/>
-    <hyperlink ref="C447" r:id="rId537" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming"/>
-    <hyperlink ref="D447" r:id="rId538" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="E447" r:id="rId539" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C448" r:id="rId540" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming"/>
-    <hyperlink ref="D448" r:id="rId541" tooltip="WMS Industries" display="https://en.wikipedia.org/wiki/WMS_Industries"/>
-    <hyperlink ref="E448" r:id="rId542" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C455" r:id="rId543" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D455" r:id="rId544" tooltip="Warthog Games" display="https://en.wikipedia.org/wiki/Warthog_Games"/>
-    <hyperlink ref="C458" r:id="rId545" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D458" r:id="rId546" location="Omega_Force" tooltip="Koei Tecmo" display="https://en.wikipedia.org/wiki/Koei_Tecmo - Omega_Force"/>
-    <hyperlink ref="E458" r:id="rId547" tooltip="Koei" display="https://en.wikipedia.org/wiki/Koei"/>
-    <hyperlink ref="C467" r:id="rId548" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D467" r:id="rId549" tooltip="Syn Sophia" display="https://en.wikipedia.org/wiki/Syn_Sophia"/>
-    <hyperlink ref="E467" r:id="rId550" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ"/>
-    <hyperlink ref="C472" r:id="rId551" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D472" r:id="rId552" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="E472" r:id="rId553" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C375" r:id="rId554" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D375" r:id="rId555" tooltip="Racjin" display="https://en.wikipedia.org/wiki/Racjin"/>
-    <hyperlink ref="E375" r:id="rId556" tooltip="Atlus" display="https://en.wikipedia.org/wiki/Atlus"/>
-    <hyperlink ref="F375" r:id="rId557" tooltip="Australia" display="https://en.wikipedia.org/wiki/Australia"/>
-    <hyperlink ref="C13" r:id="rId558" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D13" r:id="rId559" tooltip="Human Entertainment" display="https://en.wikipedia.org/wiki/Human_Entertainment"/>
-    <hyperlink ref="E13" r:id="rId560" tooltip="Human Entertainment" display="https://en.wikipedia.org/wiki/Human_Entertainment"/>
-    <hyperlink ref="C69" r:id="rId561" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D69" r:id="rId562" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="E69" r:id="rId563" tooltip="BigBen Interactive" display="https://en.wikipedia.org/wiki/BigBen_Interactive"/>
-    <hyperlink ref="E214" r:id="rId564" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft"/>
-    <hyperlink ref="C338" r:id="rId565" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D338" r:id="rId566" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E338" r:id="rId567" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C18" r:id="rId568" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D18" r:id="rId569" tooltip="High Voltage Software" display="https://en.wikipedia.org/wiki/High_Voltage_Software"/>
-    <hyperlink ref="E18" r:id="rId570" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C22" r:id="rId571" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D22" r:id="rId572" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company"/>
-    <hyperlink ref="E22" r:id="rId573" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company"/>
-    <hyperlink ref="C24" r:id="rId574" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D24" r:id="rId575" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company"/>
-    <hyperlink ref="E24" r:id="rId576" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company"/>
-    <hyperlink ref="C26" r:id="rId577" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D26" r:id="rId578" tooltip="Climax Group" display="https://en.wikipedia.org/wiki/Climax_Group"/>
-    <hyperlink ref="E26" r:id="rId579" tooltip="Crave Entertainment" display="https://en.wikipedia.org/wiki/Crave_Entertainment"/>
-    <hyperlink ref="C37" r:id="rId580" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D37" r:id="rId581" location="Defunct" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ - Defunct"/>
-    <hyperlink ref="E37" r:id="rId582" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ"/>
-    <hyperlink ref="C41" r:id="rId583" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D41" r:id="rId584" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company"/>
-    <hyperlink ref="E41" r:id="rId585" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company"/>
-    <hyperlink ref="C43" r:id="rId586" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D43" r:id="rId587" tooltip="Climax Group" display="https://en.wikipedia.org/wiki/Climax_Group"/>
-    <hyperlink ref="E43" r:id="rId588" tooltip="Crave Entertainment" display="https://en.wikipedia.org/wiki/Crave_Entertainment"/>
-    <hyperlink ref="C58" r:id="rId589" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D58" r:id="rId590" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E58" r:id="rId591" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C60" r:id="rId592" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D60" r:id="rId593" tooltip="Point of View, Inc." display="https://en.wikipedia.org/wiki/Point_of_View,_Inc."/>
-    <hyperlink ref="E60" r:id="rId594" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ"/>
-    <hyperlink ref="C65" r:id="rId595" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D65" r:id="rId596" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="E65" r:id="rId597" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C81" r:id="rId598" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D81" r:id="rId599" tooltip="Interplay Entertainment" display="https://en.wikipedia.org/wiki/Interplay_Entertainment"/>
-    <hyperlink ref="E81" r:id="rId600" tooltip="Interplay Entertainment" display="https://en.wikipedia.org/wiki/Interplay_Entertainment"/>
-    <hyperlink ref="C84" r:id="rId601" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="E84" r:id="rId602" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C110" r:id="rId603" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming"/>
-    <hyperlink ref="D110" r:id="rId604" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="E110" r:id="rId605" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C119" r:id="rId606" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D119" r:id="rId607" tooltip="Realtime Associates" display="https://en.wikipedia.org/wiki/Realtime_Associates"/>
-    <hyperlink ref="E119" r:id="rId608" tooltip="NewKidCo" display="https://en.wikipedia.org/wiki/NewKidCo"/>
-    <hyperlink ref="C120" r:id="rId609" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D120" r:id="rId610" tooltip="Realtime Associates" display="https://en.wikipedia.org/wiki/Realtime_Associates"/>
-    <hyperlink ref="E120" r:id="rId611" tooltip="NewKidCo" display="https://en.wikipedia.org/wiki/NewKidCo"/>
-    <hyperlink ref="C140" r:id="rId612" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D140" r:id="rId613" tooltip="Underground Development" display="https://en.wikipedia.org/wiki/Underground_Development"/>
-    <hyperlink ref="E140" r:id="rId614" tooltip="Fox Interactive" display="https://en.wikipedia.org/wiki/Fox_Interactive"/>
-    <hyperlink ref="C154" r:id="rId615" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D154" r:id="rId616" tooltip="Westwood Studios" display="https://en.wikipedia.org/wiki/Westwood_Studios"/>
-    <hyperlink ref="E154" r:id="rId617" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C175" r:id="rId618" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D175" r:id="rId619" tooltip="Factor 5" display="https://en.wikipedia.org/wiki/Factor_5"/>
-    <hyperlink ref="E175" r:id="rId620" tooltip="LucasArts" display="https://en.wikipedia.org/wiki/LucasArts"/>
-    <hyperlink ref="C176" r:id="rId621" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D176" r:id="rId622" tooltip="Paradigm Entertainment" display="https://en.wikipedia.org/wiki/Paradigm_Entertainment"/>
-    <hyperlink ref="E176" r:id="rId623" tooltip="Infogrames" display="https://en.wikipedia.org/wiki/Infogrames"/>
-    <hyperlink ref="C185" r:id="rId624" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D185" r:id="rId625" tooltip="GameTek" display="https://en.wikipedia.org/wiki/GameTek"/>
-    <hyperlink ref="E185" r:id="rId626" tooltip="GameTek" display="https://en.wikipedia.org/wiki/GameTek"/>
-    <hyperlink ref="C203" r:id="rId627" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D203" r:id="rId628" tooltip="Angel Studios" display="https://en.wikipedia.org/wiki/Angel_Studios"/>
-    <hyperlink ref="E203" r:id="rId629" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C219" r:id="rId630" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D219" r:id="rId631" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="E219" r:id="rId632" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C220" r:id="rId633" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D220" r:id="rId634" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="E220" r:id="rId635" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C221" r:id="rId636" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming"/>
-    <hyperlink ref="D221" r:id="rId637" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="E221" r:id="rId638" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C244" r:id="rId639" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D244" r:id="rId640" tooltip="Backbone Entertainment" display="https://en.wikipedia.org/wiki/Backbone_Entertainment"/>
-    <hyperlink ref="E244" r:id="rId641" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C245" r:id="rId642" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="E245" r:id="rId643" tooltip="GT Interactive Software" display="https://en.wikipedia.org/wiki/GT_Interactive_Software"/>
-    <hyperlink ref="C251" r:id="rId644" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D251" r:id="rId645" tooltip="Mind's Eye Productions" display="https://en.wikipedia.org/wiki/Mind%27s_Eye_Productions"/>
-    <hyperlink ref="E251" r:id="rId646" tooltip="Hasbro Interactive" display="https://en.wikipedia.org/wiki/Hasbro_Interactive"/>
-    <hyperlink ref="C258" r:id="rId647" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D258" r:id="rId648" location="Defunct" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ - Defunct"/>
-    <hyperlink ref="E258" r:id="rId649" tooltip="Namco" display="https://en.wikipedia.org/wiki/Namco"/>
-    <hyperlink ref="C262" r:id="rId650" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D262" r:id="rId651" location="Defunct" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ - Defunct"/>
-    <hyperlink ref="E262" r:id="rId652" tooltip="Namco" display="https://en.wikipedia.org/wiki/Namco"/>
-    <hyperlink ref="C263" r:id="rId653" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D263" r:id="rId654" tooltip="Stormfront Studios" display="https://en.wikipedia.org/wiki/Stormfront_Studios"/>
-    <hyperlink ref="E263" r:id="rId655" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C265" r:id="rId656" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D265" r:id="rId657" tooltip="Left Field Productions" display="https://en.wikipedia.org/wiki/Left_Field_Productions"/>
-    <hyperlink ref="E265" r:id="rId658" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C277" r:id="rId659" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D277" r:id="rId660" tooltip="Eurocom" display="https://en.wikipedia.org/wiki/Eurocom"/>
-    <hyperlink ref="E277" r:id="rId661" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C281" r:id="rId662" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D281" r:id="rId663" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="E281" r:id="rId664" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C282" r:id="rId665" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D282" r:id="rId666" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="E282" r:id="rId667" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C284" r:id="rId668" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D284" r:id="rId669" tooltip="Point of View, Inc." display="https://en.wikipedia.org/wiki/Point_of_View,_Inc."/>
-    <hyperlink ref="E284" r:id="rId670" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C283" r:id="rId671" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming"/>
-    <hyperlink ref="D283" r:id="rId672" tooltip="Point of View, Inc." display="https://en.wikipedia.org/wiki/Point_of_View,_Inc."/>
-    <hyperlink ref="E283" r:id="rId673" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C285" r:id="rId674" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D285" r:id="rId675" tooltip="High Voltage Software" display="https://en.wikipedia.org/wiki/High_Voltage_Software"/>
-    <hyperlink ref="E285" r:id="rId676" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C294" r:id="rId677" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="E294" r:id="rId678" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision"/>
-    <hyperlink ref="C323" r:id="rId679" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D323" r:id="rId680" tooltip="Vicarious Visions" display="https://en.wikipedia.org/wiki/Vicarious_Visions"/>
-    <hyperlink ref="C414" r:id="rId681" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming"/>
-    <hyperlink ref="D414" r:id="rId682" tooltip="VIS Entertainment" display="https://en.wikipedia.org/wiki/VIS_Entertainment"/>
-    <hyperlink ref="E414" r:id="rId683" tooltip="BAM! Entertainment" display="https://en.wikipedia.org/wiki/BAM!_Entertainment"/>
-    <hyperlink ref="C345" r:id="rId684" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming"/>
-    <hyperlink ref="E345" r:id="rId685" tooltip="Crave Entertainment" display="https://en.wikipedia.org/wiki/Crave_Entertainment"/>
-    <hyperlink ref="C347" r:id="rId686" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D347" r:id="rId687" tooltip="Point of View, Inc." display="https://en.wikipedia.org/wiki/Point_of_View,_Inc."/>
-    <hyperlink ref="E347" r:id="rId688" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C381" r:id="rId689" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D381" r:id="rId690" tooltip="Underground Development" display="https://en.wikipedia.org/wiki/Underground_Development"/>
-    <hyperlink ref="E381" r:id="rId691" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision"/>
-    <hyperlink ref="C383" r:id="rId692" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D383" r:id="rId693" tooltip="Edge of Reality" display="https://en.wikipedia.org/wiki/Edge_of_Reality"/>
-    <hyperlink ref="E383" r:id="rId694" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision"/>
-    <hyperlink ref="C395" r:id="rId695" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D395" r:id="rId696" tooltip="Boss Game Studios" display="https://en.wikipedia.org/wiki/Boss_Game_Studios"/>
-    <hyperlink ref="E395" r:id="rId697" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C420" r:id="rId698" tooltip="2002 in video gaming" display="https://en.wikipedia.org/wiki/2002_in_video_gaming"/>
-    <hyperlink ref="D420" r:id="rId699" tooltip="Edge of Reality" display="https://en.wikipedia.org/wiki/Edge_of_Reality"/>
-    <hyperlink ref="E420" r:id="rId700" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision"/>
-    <hyperlink ref="C429" r:id="rId701" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D429" r:id="rId702" tooltip="Treyarch" display="https://en.wikipedia.org/wiki/Treyarch"/>
-    <hyperlink ref="E429" r:id="rId703" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C450" r:id="rId704" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="E450" r:id="rId705" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C452" r:id="rId706" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D452" r:id="rId707" tooltip="Inland Productions" display="https://en.wikipedia.org/wiki/Inland_Productions"/>
-    <hyperlink ref="E452" r:id="rId708" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ"/>
-    <hyperlink ref="C456" r:id="rId709" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D456" r:id="rId710" tooltip="GameTek" display="https://en.wikipedia.org/wiki/GameTek"/>
-    <hyperlink ref="C2" r:id="rId711" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D2" r:id="rId712" tooltip="Eurocom" display="https://en.wikipedia.org/wiki/Eurocom"/>
-    <hyperlink ref="E2" r:id="rId713" tooltip="EA Games" display="https://en.wikipedia.org/wiki/EA_Games"/>
-    <hyperlink ref="C12" r:id="rId714" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming"/>
-    <hyperlink ref="E12" r:id="rId715" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ"/>
-    <hyperlink ref="C19" r:id="rId716" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D19" r:id="rId717" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment"/>
-    <hyperlink ref="E19" r:id="rId718" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C17" r:id="rId719" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D17" r:id="rId720" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment"/>
-    <hyperlink ref="E17" r:id="rId721" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C16" r:id="rId722" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="E16" r:id="rId723" tooltip="Ubisoft" display="https://en.wikipedia.org/wiki/Ubisoft"/>
-    <hyperlink ref="C21" r:id="rId724" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D21" r:id="rId725" tooltip="Acclaim Cheltenham" display="https://en.wikipedia.org/wiki/Acclaim_Cheltenham"/>
-    <hyperlink ref="E21" r:id="rId726" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C23" r:id="rId727" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D23" r:id="rId728" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company"/>
-    <hyperlink ref="E23" r:id="rId729" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company"/>
-    <hyperlink ref="C36" r:id="rId730" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="E36" r:id="rId731" tooltip="Take-Two Interactive" display="https://en.wikipedia.org/wiki/Take-Two_Interactive"/>
-    <hyperlink ref="C39" r:id="rId732" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D39" r:id="rId733" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco"/>
-    <hyperlink ref="E39" r:id="rId734" tooltip="Ubisoft" display="https://en.wikipedia.org/wiki/Ubisoft"/>
-    <hyperlink ref="C42" r:id="rId735" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D42" r:id="rId736" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company"/>
-    <hyperlink ref="E42" r:id="rId737" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company"/>
-    <hyperlink ref="C46" r:id="rId738" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D46" r:id="rId739" tooltip="Saffire Corporation" display="https://en.wikipedia.org/wiki/Saffire_Corporation"/>
-    <hyperlink ref="E46" r:id="rId740" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C50" r:id="rId741" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="E50" r:id="rId742" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software"/>
-    <hyperlink ref="C51" r:id="rId743" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D51" r:id="rId744" tooltip="DMA Design" display="https://en.wikipedia.org/wiki/DMA_Design"/>
-    <hyperlink ref="E51" r:id="rId745" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C8" r:id="rId746" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D8" r:id="rId747" tooltip="Traveller's Tales" display="https://en.wikipedia.org/wiki/Traveller%27s_Tales"/>
-    <hyperlink ref="E8" r:id="rId748" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision"/>
-    <hyperlink ref="C62" r:id="rId749" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D62" r:id="rId750" tooltip="Acclaim Cheltenham" display="https://en.wikipedia.org/wiki/Acclaim_Cheltenham"/>
-    <hyperlink ref="E62" r:id="rId751" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C66" r:id="rId752" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D66" r:id="rId753" tooltip="Software Creations (UK)" display="https://en.wikipedia.org/wiki/Software_Creations_(UK)"/>
-    <hyperlink ref="E66" r:id="rId754" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software"/>
-    <hyperlink ref="C72" r:id="rId755" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D72" r:id="rId756" tooltip="Realtime Associates" display="https://en.wikipedia.org/wiki/Realtime_Associates"/>
-    <hyperlink ref="E72" r:id="rId757" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco"/>
-    <hyperlink ref="C80" r:id="rId758" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D80" r:id="rId759" tooltip="Interplay Entertainment" display="https://en.wikipedia.org/wiki/Interplay_Entertainment"/>
-    <hyperlink ref="E80" r:id="rId760" tooltip="Interplay Entertainment" display="https://en.wikipedia.org/wiki/Interplay_Entertainment"/>
-    <hyperlink ref="C82" r:id="rId761" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D82" r:id="rId762" tooltip="Westwood Studios" display="https://en.wikipedia.org/wiki/Westwood_Studios"/>
-    <hyperlink ref="E82" r:id="rId763" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C83" r:id="rId764" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming"/>
-    <hyperlink ref="D83" r:id="rId765" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)"/>
-    <hyperlink ref="C85" r:id="rId766" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming"/>
-    <hyperlink ref="D85" r:id="rId767" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="E85" r:id="rId768" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C86" r:id="rId769" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D86" r:id="rId770" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="E86" r:id="rId771" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C89" r:id="rId772" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D89" r:id="rId773" tooltip="Saffire Corporation" display="https://en.wikipedia.org/wiki/Saffire_Corporation"/>
-    <hyperlink ref="E89" r:id="rId774" tooltip="EA Games" display="https://en.wikipedia.org/wiki/EA_Games"/>
-    <hyperlink ref="C98" r:id="rId775" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D98" r:id="rId776" tooltip="Looking Glass Studios" display="https://en.wikipedia.org/wiki/Looking_Glass_Studios"/>
-    <hyperlink ref="E98" r:id="rId777" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ"/>
-    <hyperlink ref="C103" r:id="rId778" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="E103" r:id="rId779" tooltip="Ubi Soft Entertainment" display="https://en.wikipedia.org/wiki/Ubi_Soft_Entertainment"/>
-    <hyperlink ref="C101" r:id="rId780" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D101" r:id="rId781" tooltip="Eurocom" display="https://en.wikipedia.org/wiki/Eurocom"/>
-    <hyperlink ref="E101" r:id="rId782" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision"/>
-    <hyperlink ref="C112" r:id="rId783" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D112" r:id="rId784" tooltip="Paradigm Entertainment" display="https://en.wikipedia.org/wiki/Paradigm_Entertainment"/>
-    <hyperlink ref="E112" r:id="rId785" tooltip="Infogrames" display="https://en.wikipedia.org/wiki/Infogrames"/>
-    <hyperlink ref="C113" r:id="rId786" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D113" r:id="rId787" tooltip="Eurocom" display="https://en.wikipedia.org/wiki/Eurocom"/>
-    <hyperlink ref="E113" r:id="rId788" tooltip="GT Interactive Software" display="https://en.wikipedia.org/wiki/GT_Interactive_Software"/>
-    <hyperlink ref="C114" r:id="rId789" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D114" r:id="rId790" tooltip="Eurocom" display="https://en.wikipedia.org/wiki/Eurocom"/>
-    <hyperlink ref="E114" r:id="rId791" tooltip="GT Interactive Software" display="https://en.wikipedia.org/wiki/GT_Interactive_Software"/>
-    <hyperlink ref="C116" r:id="rId792" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D116" r:id="rId793" tooltip="VIS Entertainment" display="https://en.wikipedia.org/wiki/VIS_Entertainment"/>
-    <hyperlink ref="C117" r:id="rId794" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D117" r:id="rId795" tooltip="Acclaim Studios Salt Lake City" display="https://en.wikipedia.org/wiki/Acclaim_Studios_Salt_Lake_City"/>
-    <hyperlink ref="E117" r:id="rId796" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C131" r:id="rId797" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D131" r:id="rId798" tooltip="EA Canada" display="https://en.wikipedia.org/wiki/EA_Canada"/>
-    <hyperlink ref="E131" r:id="rId799" tooltip="EA Sports" display="https://en.wikipedia.org/wiki/EA_Sports"/>
-    <hyperlink ref="C136" r:id="rId800" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D136" r:id="rId801" tooltip="Core Design" display="https://en.wikipedia.org/wiki/Core_Design"/>
-    <hyperlink ref="E136" r:id="rId802" tooltip="Crave Entertainment" display="https://en.wikipedia.org/wiki/Crave_Entertainment"/>
-    <hyperlink ref="C138" r:id="rId803" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D138" r:id="rId804" tooltip="Acclaim Studios Teesside" display="https://en.wikipedia.org/wiki/Acclaim_Studios_Teesside"/>
-    <hyperlink ref="E138" r:id="rId805" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C149" r:id="rId806" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="E149" r:id="rId807" tooltip="Crave Entertainment" display="https://en.wikipedia.org/wiki/Crave_Entertainment"/>
-    <hyperlink ref="C150" r:id="rId808" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D150" r:id="rId809" tooltip="Realtime Associates" display="https://en.wikipedia.org/wiki/Realtime_Associates"/>
-    <hyperlink ref="E150" r:id="rId810" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C151" r:id="rId811" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D151" r:id="rId812" tooltip="Blitz Games" display="https://en.wikipedia.org/wiki/Blitz_Games"/>
-    <hyperlink ref="C160" r:id="rId813" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="E160" r:id="rId814" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software"/>
-    <hyperlink ref="C166" r:id="rId815" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D166" r:id="rId816" tooltip="Stormfront Studios" display="https://en.wikipedia.org/wiki/Stormfront_Studios"/>
-    <hyperlink ref="E166" r:id="rId817" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C170" r:id="rId818" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D170" r:id="rId819" tooltip="Eurocom" display="https://en.wikipedia.org/wiki/Eurocom"/>
-    <hyperlink ref="E170" r:id="rId820" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C186" r:id="rId821" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D186" r:id="rId822" tooltip="Acclaim Studios Salt Lake City" display="https://en.wikipedia.org/wiki/Acclaim_Studios_Salt_Lake_City"/>
-    <hyperlink ref="E186" r:id="rId823" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C204" r:id="rId824" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming"/>
-    <hyperlink ref="D204" r:id="rId825" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)"/>
-    <hyperlink ref="E204" r:id="rId826" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C210" r:id="rId827" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D210" r:id="rId828" tooltip="Black Ops Entertainment" display="https://en.wikipedia.org/wiki/Black_Ops_Entertainment"/>
-    <hyperlink ref="E210" r:id="rId829" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C211" r:id="rId830" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D211" r:id="rId831" tooltip="Left Field Productions" display="https://en.wikipedia.org/wiki/Left_Field_Productions"/>
-    <hyperlink ref="E211" r:id="rId832" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C213" r:id="rId833" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D213" r:id="rId834" tooltip="High Voltage Software" display="https://en.wikipedia.org/wiki/High_Voltage_Software"/>
-    <hyperlink ref="E213" r:id="rId835" tooltip="Lego Media" display="https://en.wikipedia.org/wiki/Lego_Media"/>
-    <hyperlink ref="C217" r:id="rId836" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D217" r:id="rId837" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="E217" r:id="rId838" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C218" r:id="rId839" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D218" r:id="rId840" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="E218" r:id="rId841" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C222" r:id="rId842" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D222" r:id="rId843" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="E222" r:id="rId844" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C240" r:id="rId845" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D240" r:id="rId846" tooltip="Silicon Dreams Studio" display="https://en.wikipedia.org/wiki/Silicon_Dreams_Studio"/>
-    <hyperlink ref="E240" r:id="rId847" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ"/>
-    <hyperlink ref="E239" r:id="rId848" tooltip="SouthPeak Games" display="https://en.wikipedia.org/wiki/SouthPeak_Games"/>
-    <hyperlink ref="C243" r:id="rId849" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D243" r:id="rId850" tooltip="Codemasters" display="https://en.wikipedia.org/wiki/Codemasters"/>
-    <hyperlink ref="E243" r:id="rId851" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C246" r:id="rId852" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="E246" r:id="rId853" tooltip="Crave Entertainment" display="https://en.wikipedia.org/wiki/Crave_Entertainment"/>
-    <hyperlink ref="C248" r:id="rId854" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D248" r:id="rId855" tooltip="Infogrames Multimedia" display="https://en.wikipedia.org/wiki/Infogrames_Multimedia"/>
-    <hyperlink ref="C249" r:id="rId856" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D249" r:id="rId857" tooltip="Ubisoft" display="https://en.wikipedia.org/wiki/Ubisoft"/>
-    <hyperlink ref="E249" r:id="rId858" tooltip="Ubisoft" display="https://en.wikipedia.org/wiki/Ubisoft"/>
-    <hyperlink ref="C252" r:id="rId859" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D252" r:id="rId860" tooltip="Edge of Reality" display="https://en.wikipedia.org/wiki/Edge_of_Reality"/>
-    <hyperlink ref="E252" r:id="rId861" tooltip="Rockstar Games" display="https://en.wikipedia.org/wiki/Rockstar_Games"/>
-    <hyperlink ref="C254" r:id="rId862" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D254" r:id="rId863" tooltip="Eurocom" display="https://en.wikipedia.org/wiki/Eurocom"/>
-    <hyperlink ref="E254" r:id="rId864" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C255" r:id="rId865" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D255" r:id="rId866" tooltip="Avalanche Software" display="https://en.wikipedia.org/wiki/Avalanche_Software"/>
-    <hyperlink ref="E255" r:id="rId867" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C256" r:id="rId868" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming"/>
-    <hyperlink ref="D256" r:id="rId869" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="E256" r:id="rId870" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C264" r:id="rId871" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D264" r:id="rId872" tooltip="Stormfront Studios" display="https://en.wikipedia.org/wiki/Stormfront_Studios"/>
-    <hyperlink ref="E264" r:id="rId873" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C266" r:id="rId874" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D266" r:id="rId875" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="E266" r:id="rId876" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C267" r:id="rId877" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D267" r:id="rId878" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E267" r:id="rId879" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C272" r:id="rId880" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D272" r:id="rId881" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment"/>
-    <hyperlink ref="E272" r:id="rId882" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C271" r:id="rId883" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D271" r:id="rId884" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment"/>
-    <hyperlink ref="E271" r:id="rId885" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C274" r:id="rId886" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D274" r:id="rId887" tooltip="NuFX" display="https://en.wikipedia.org/wiki/NuFX"/>
-    <hyperlink ref="E274" r:id="rId888" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C273" r:id="rId889" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D273" r:id="rId890" tooltip="NuFX" display="https://en.wikipedia.org/wiki/NuFX"/>
-    <hyperlink ref="E273" r:id="rId891" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C413" r:id="rId892" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="E413" r:id="rId893" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C287" r:id="rId894" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D287" r:id="rId895" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment"/>
-    <hyperlink ref="E287" r:id="rId896" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C288" r:id="rId897" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D288" r:id="rId898" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment"/>
-    <hyperlink ref="E288" r:id="rId899" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C286" r:id="rId900" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D286" r:id="rId901" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment"/>
-    <hyperlink ref="E286" r:id="rId902" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C289" r:id="rId903" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="E289" r:id="rId904" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C290" r:id="rId905" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D290" r:id="rId906" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="E290" r:id="rId907" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami"/>
-    <hyperlink ref="C291" r:id="rId908" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D291" r:id="rId909" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment"/>
-    <hyperlink ref="E291" r:id="rId910" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C292" r:id="rId911" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D292" r:id="rId912" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment"/>
-    <hyperlink ref="E292" r:id="rId913" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C296" r:id="rId914" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D296" r:id="rId915" tooltip="Pacific Coast Power &amp; Light" display="https://en.wikipedia.org/wiki/Pacific_Coast_Power_%26_Light"/>
-    <hyperlink ref="E296" r:id="rId916" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ"/>
-    <hyperlink ref="C299" r:id="rId917" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D299" r:id="rId918" tooltip="Avalanche Software" display="https://en.wikipedia.org/wiki/Avalanche_Software"/>
-    <hyperlink ref="E299" r:id="rId919" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C306" r:id="rId920" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D306" r:id="rId921" tooltip="High Voltage Software" display="https://en.wikipedia.org/wiki/High_Voltage_Software"/>
-    <hyperlink ref="E306" r:id="rId922" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C311" r:id="rId923" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D311" r:id="rId924" tooltip="Gremlin Interactive" display="https://en.wikipedia.org/wiki/Gremlin_Interactive"/>
-    <hyperlink ref="E311" r:id="rId925" tooltip="Infogrames Entertainment, SA" display="https://en.wikipedia.org/wiki/Infogrames_Entertainment,_SA"/>
-    <hyperlink ref="C319" r:id="rId926" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D319" r:id="rId927" tooltip="Nintendo Software Technology" display="https://en.wikipedia.org/wiki/Nintendo_Software_Technology"/>
-    <hyperlink ref="E319" r:id="rId928" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C325" r:id="rId929" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D325" r:id="rId930" location="Defunct" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ - Defunct"/>
-    <hyperlink ref="E325" r:id="rId931" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ"/>
-    <hyperlink ref="C332" r:id="rId932" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D332" r:id="rId933" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="E332" r:id="rId934" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C333" r:id="rId935" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="E333" r:id="rId936" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision"/>
-    <hyperlink ref="C337" r:id="rId937" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D337" r:id="rId938" tooltip="Saffire Corporation" display="https://en.wikipedia.org/wiki/Saffire_Corporation"/>
-    <hyperlink ref="E337" r:id="rId939" tooltip="Red Storm Entertainment" display="https://en.wikipedia.org/wiki/Red_Storm_Entertainment"/>
-    <hyperlink ref="C341" r:id="rId940" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D341" r:id="rId941" tooltip="Avalanche Software" display="https://en.wikipedia.org/wiki/Avalanche_Software"/>
-    <hyperlink ref="E341" r:id="rId942" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C342" r:id="rId943" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D342" r:id="rId944" tooltip="Saffire Corporation" display="https://en.wikipedia.org/wiki/Saffire_Corporation"/>
-    <hyperlink ref="E342" r:id="rId945" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C343" r:id="rId946" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="E343" r:id="rId947" tooltip="Mindscape" display="https://en.wikipedia.org/wiki/Mindscape"/>
-    <hyperlink ref="C344" r:id="rId948" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D344" r:id="rId949" tooltip="Ubi Soft" display="https://en.wikipedia.org/wiki/Ubi_Soft"/>
-    <hyperlink ref="E344" r:id="rId950" tooltip="Ubi Soft Entertainment" display="https://en.wikipedia.org/wiki/Ubi_Soft_Entertainment"/>
-    <hyperlink ref="C349" r:id="rId951" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D349" r:id="rId952" tooltip="Acclaim Cheltenham" display="https://en.wikipedia.org/wiki/Acclaim_Cheltenham"/>
-    <hyperlink ref="E349" r:id="rId953" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C346" r:id="rId954" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D346" r:id="rId955" tooltip="Point of View, Inc." display="https://en.wikipedia.org/wiki/Point_of_View,_Inc."/>
-    <hyperlink ref="E346" r:id="rId956" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C350" r:id="rId957" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D350" r:id="rId958" tooltip="Nintendo Software Technology" display="https://en.wikipedia.org/wiki/Nintendo_Software_Technology"/>
-    <hyperlink ref="E350" r:id="rId959" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C351" r:id="rId960" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D351" r:id="rId961" tooltip="Pacific Coast Power &amp; Light" display="https://en.wikipedia.org/wiki/Pacific_Coast_Power_%26_Light"/>
-    <hyperlink ref="E351" r:id="rId962" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ"/>
-    <hyperlink ref="C352" r:id="rId963" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D352" r:id="rId964" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software"/>
-    <hyperlink ref="E352" r:id="rId965" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software"/>
-    <hyperlink ref="C354" r:id="rId966" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="E354" r:id="rId967" tooltip="Crave Entertainment" display="https://en.wikipedia.org/wiki/Crave_Entertainment"/>
-    <hyperlink ref="C355" r:id="rId968" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D355" r:id="rId969" tooltip="Sucker Punch Productions" display="https://en.wikipedia.org/wiki/Sucker_Punch_Productions"/>
-    <hyperlink ref="E355" r:id="rId970" tooltip="Ubisoft" display="https://en.wikipedia.org/wiki/Ubisoft"/>
-    <hyperlink ref="C358" r:id="rId971" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D358" r:id="rId972" tooltip="Avalanche Software" display="https://en.wikipedia.org/wiki/Avalanche_Software"/>
-    <hyperlink ref="E358" r:id="rId973" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ"/>
-    <hyperlink ref="C359" r:id="rId974" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D359" r:id="rId975" tooltip="Realtime Associates" display="https://en.wikipedia.org/wiki/Realtime_Associates"/>
-    <hyperlink ref="E359" r:id="rId976" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ"/>
-    <hyperlink ref="C361" r:id="rId977" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D361" r:id="rId978" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="E361" r:id="rId979" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C362" r:id="rId980" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="E362" r:id="rId981" tooltip="Ubi Soft Entertainment" display="https://en.wikipedia.org/wiki/Ubi_Soft_Entertainment"/>
-    <hyperlink ref="C365" r:id="rId982" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D365" r:id="rId983" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="E365" r:id="rId984" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C364" r:id="rId985" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D364" r:id="rId986" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="E364" r:id="rId987" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C366" r:id="rId988" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D366" r:id="rId989" tooltip="Terraglyph Interactive Studios" display="https://en.wikipedia.org/wiki/Terraglyph_Interactive_Studios"/>
-    <hyperlink ref="E366" r:id="rId990" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ"/>
-    <hyperlink ref="C368" r:id="rId991" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D368" r:id="rId992" tooltip="Acclaim Studios Teesside" display="https://en.wikipedia.org/wiki/Acclaim_Studios_Teesside"/>
-    <hyperlink ref="E368" r:id="rId993" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C377" r:id="rId994" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D377" r:id="rId995" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment"/>
-    <hyperlink ref="E377" r:id="rId996" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C378" r:id="rId997" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D378" r:id="rId998" tooltip="Tantalus Media" display="https://en.wikipedia.org/wiki/Tantalus_Media"/>
-    <hyperlink ref="E378" r:id="rId999" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C379" r:id="rId1000" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D379" r:id="rId1001" tooltip="Acclaim Studios Austin" display="https://en.wikipedia.org/wiki/Acclaim_Studios_Austin"/>
-    <hyperlink ref="E379" r:id="rId1002" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C382" r:id="rId1003" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D382" r:id="rId1004" tooltip="DMA Design" display="https://en.wikipedia.org/wiki/DMA_Design"/>
-    <hyperlink ref="E382" r:id="rId1005" tooltip="Take-Two Interactive" display="https://en.wikipedia.org/wiki/Take-Two_Interactive"/>
-    <hyperlink ref="C388" r:id="rId1006" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D388" r:id="rId1007" tooltip="Factor 5" display="https://en.wikipedia.org/wiki/Factor_5"/>
-    <hyperlink ref="E388" r:id="rId1008" tooltip="LucasArts" display="https://en.wikipedia.org/wiki/LucasArts"/>
-    <hyperlink ref="C394" r:id="rId1009" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D394" r:id="rId1010" tooltip="Infogrames Entertainment, SA" display="https://en.wikipedia.org/wiki/Infogrames_Entertainment,_SA"/>
-    <hyperlink ref="E394" r:id="rId1011" tooltip="Infogrames Entertainment, SA" display="https://en.wikipedia.org/wiki/Infogrames_Entertainment,_SA"/>
-    <hyperlink ref="C403" r:id="rId1012" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="E403" r:id="rId1013" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C404" r:id="rId1014" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D404" r:id="rId1015" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software"/>
-    <hyperlink ref="E404" r:id="rId1016" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software"/>
-    <hyperlink ref="C410" r:id="rId1017" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="E410" r:id="rId1018" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C415" r:id="rId1019" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="C416" r:id="rId1020" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D416" r:id="rId1021" tooltip="VIS Entertainment" display="https://en.wikipedia.org/wiki/VIS_Entertainment"/>
-    <hyperlink ref="C417" r:id="rId1022" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D417" r:id="rId1023" tooltip="Ubisoft" display="https://en.wikipedia.org/wiki/Ubisoft"/>
-    <hyperlink ref="E417" r:id="rId1024" tooltip="Ubisoft" display="https://en.wikipedia.org/wiki/Ubisoft"/>
-    <hyperlink ref="C418" r:id="rId1025" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D418" r:id="rId1026" tooltip="Edge of Reality" display="https://en.wikipedia.org/wiki/Edge_of_Reality"/>
-    <hyperlink ref="E418" r:id="rId1027" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision"/>
-    <hyperlink ref="C419" r:id="rId1028" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming"/>
-    <hyperlink ref="D419" r:id="rId1029" tooltip="Edge of Reality" display="https://en.wikipedia.org/wiki/Edge_of_Reality"/>
-    <hyperlink ref="E419" r:id="rId1030" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision"/>
-    <hyperlink ref="C426" r:id="rId1031" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D426" r:id="rId1032" tooltip="Traveller's Tales" display="https://en.wikipedia.org/wiki/Traveller%27s_Tales"/>
-    <hyperlink ref="E426" r:id="rId1033" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision"/>
-    <hyperlink ref="C431" r:id="rId1034" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D431" r:id="rId1035" tooltip="Acclaim Studios Austin" display="https://en.wikipedia.org/wiki/Acclaim_Studios_Austin"/>
-    <hyperlink ref="E431" r:id="rId1036" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C434" r:id="rId1037" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D434" r:id="rId1038" tooltip="Acclaim Studios Austin" display="https://en.wikipedia.org/wiki/Acclaim_Studios_Austin"/>
-    <hyperlink ref="E434" r:id="rId1039" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C437" r:id="rId1040" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D437" r:id="rId1041" tooltip="Luxoflux" display="https://en.wikipedia.org/wiki/Luxoflux"/>
-    <hyperlink ref="E437" r:id="rId1042" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision"/>
-    <hyperlink ref="C438" r:id="rId1043" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D438" r:id="rId1044" tooltip="Luxoflux" display="https://en.wikipedia.org/wiki/Luxoflux"/>
-    <hyperlink ref="E438" r:id="rId1045" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision"/>
-    <hyperlink ref="C440" r:id="rId1046" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D440" r:id="rId1047" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software"/>
-    <hyperlink ref="E440" r:id="rId1048" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software"/>
-    <hyperlink ref="C441" r:id="rId1049" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D441" r:id="rId1050" tooltip="Celeris" display="https://en.wikipedia.org/wiki/Celeris"/>
-    <hyperlink ref="E441" r:id="rId1051" tooltip="Crave Entertainment" display="https://en.wikipedia.org/wiki/Crave_Entertainment"/>
-    <hyperlink ref="C445" r:id="rId1052" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D445" r:id="rId1053" tooltip="Technology and Entertainment Software" display="https://en.wikipedia.org/wiki/Technology_and_Entertainment_Software"/>
-    <hyperlink ref="E445" r:id="rId1054" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="C446" r:id="rId1055" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D446" r:id="rId1056" tooltip="Eurocom" display="https://en.wikipedia.org/wiki/Eurocom"/>
-    <hyperlink ref="E446" r:id="rId1057" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C449" r:id="rId1058" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D449" r:id="rId1059" tooltip="Software Creations (UK)" display="https://en.wikipedia.org/wiki/Software_Creations_(UK)"/>
-    <hyperlink ref="E449" r:id="rId1060" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C451" r:id="rId1061" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="E451" r:id="rId1062" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C453" r:id="rId1063" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming"/>
-    <hyperlink ref="D453" r:id="rId1064" tooltip="Syn Sophia" display="https://en.wikipedia.org/wiki/Syn_Sophia"/>
-    <hyperlink ref="E453" r:id="rId1065" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ"/>
-    <hyperlink ref="C454" r:id="rId1066" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D454" r:id="rId1067" tooltip="Syn Sophia" display="https://en.wikipedia.org/wiki/Syn_Sophia"/>
-    <hyperlink ref="E454" r:id="rId1068" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ"/>
-    <hyperlink ref="C459" r:id="rId1069" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D459" r:id="rId1070" tooltip="SCE Studio Liverpool" display="https://en.wikipedia.org/wiki/SCE_Studio_Liverpool"/>
-    <hyperlink ref="E459" r:id="rId1071" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C461" r:id="rId1072" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D461" r:id="rId1073" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="E461" r:id="rId1074" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts"/>
-    <hyperlink ref="C462" r:id="rId1075" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D462" r:id="rId1076" tooltip="Boss Game Studios" display="https://en.wikipedia.org/wiki/Boss_Game_Studios"/>
-    <hyperlink ref="E462" r:id="rId1077" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games"/>
-    <hyperlink ref="C463" r:id="rId1078" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D463" r:id="rId1079" tooltip="Infogrames Entertainment, SA" display="https://en.wikipedia.org/wiki/Infogrames_Entertainment,_SA"/>
-    <hyperlink ref="E463" r:id="rId1080" tooltip="Infogrames Entertainment, SA" display="https://en.wikipedia.org/wiki/Infogrames_Entertainment,_SA"/>
-    <hyperlink ref="C464" r:id="rId1081" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="E464" r:id="rId1082" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C465" r:id="rId1083" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D465" r:id="rId1084" tooltip="Syn Sophia" display="https://en.wikipedia.org/wiki/Syn_Sophia"/>
-    <hyperlink ref="E465" r:id="rId1085" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ"/>
-    <hyperlink ref="C466" r:id="rId1086" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="E466" r:id="rId1087" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment"/>
-    <hyperlink ref="C468" r:id="rId1088" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D468" r:id="rId1089" tooltip="Saffire Corporation" display="https://en.wikipedia.org/wiki/Saffire_Corporation"/>
-    <hyperlink ref="E468" r:id="rId1090" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software"/>
-    <hyperlink ref="C227" r:id="rId1091" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming"/>
-    <hyperlink ref="D227" r:id="rId1092" tooltip="Angel Studios" display="https://en.wikipedia.org/wiki/Angel_Studios"/>
-    <hyperlink ref="E227" r:id="rId1093" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="F227" r:id="rId1094" tooltip="Australia" display="https://en.wikipedia.org/wiki/Australia"/>
-    <hyperlink ref="C393" r:id="rId1095" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D393" r:id="rId1096" location="Defunct" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ - Defunct"/>
-    <hyperlink ref="E393" r:id="rId1097" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo"/>
-    <hyperlink ref="F393" r:id="rId1098" tooltip="Australia" display="https://en.wikipedia.org/wiki/Australia"/>
-    <hyperlink ref="C128" r:id="rId1099" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D128" r:id="rId1100" tooltip="Paradigm Entertainment" display="https://en.wikipedia.org/wiki/Paradigm_Entertainment"/>
-    <hyperlink ref="E128" r:id="rId1101" tooltip="Video System" display="https://en.wikipedia.org/wiki/Video_System"/>
-    <hyperlink ref="C326" r:id="rId1102" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming"/>
-    <hyperlink ref="D326" r:id="rId1103" tooltip="Gremlin Interactive" display="https://en.wikipedia.org/wiki/Gremlin_Interactive"/>
-    <hyperlink ref="E326" r:id="rId1104" tooltip="Gremlin Interactive" display="https://en.wikipedia.org/wiki/Gremlin_Interactive"/>
-    <hyperlink ref="C407" r:id="rId1105" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D407" r:id="rId1106" tooltip="Warthog Games" display="https://en.wikipedia.org/wiki/Warthog_Games"/>
-    <hyperlink ref="E407" r:id="rId1107" tooltip="Infogrames Entertainment, SA" display="https://en.wikipedia.org/wiki/Infogrames_Entertainment,_SA"/>
-    <hyperlink ref="C126" r:id="rId1108" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming"/>
-    <hyperlink ref="D126" r:id="rId1109" tooltip="Ubi Soft Entertainment" display="https://en.wikipedia.org/wiki/Ubi_Soft_Entertainment"/>
-    <hyperlink ref="E126" r:id="rId1110" tooltip="Ubi Soft Entertainment" display="https://en.wikipedia.org/wiki/Ubi_Soft_Entertainment"/>
-    <hyperlink ref="F126" r:id="rId1111" tooltip="Brazil" display="https://en.wikipedia.org/wiki/Brazil"/>
+    <hyperlink ref="C4" r:id="rId1" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" tooltip="Altron" display="https://en.wikipedia.org/wiki/Altron" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" tooltip="Altron" display="https://en.wikipedia.org/wiki/Altron" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C20" r:id="rId8" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D20" r:id="rId9" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E20" r:id="rId10" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C30" r:id="rId11" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D30" r:id="rId12" tooltip="Treasure (company)" display="https://en.wikipedia.org/wiki/Treasure_(company)" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E30" r:id="rId13" tooltip="Entertainment Software Publishing" display="https://en.wikipedia.org/wiki/Entertainment_Software_Publishing" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C31" r:id="rId14" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D31" r:id="rId15" tooltip="Taito Corporation" display="https://en.wikipedia.org/wiki/Taito_Corporation" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E31" r:id="rId16" tooltip="Taito Corporation" display="https://en.wikipedia.org/wiki/Taito_Corporation" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C38" r:id="rId17" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D38" r:id="rId18" tooltip="Visco Corporation" display="https://en.wikipedia.org/wiki/Visco_Corporation" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E38" r:id="rId19" tooltip="Visco Corporation" display="https://en.wikipedia.org/wiki/Visco_Corporation" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C54" r:id="rId20" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D54" r:id="rId21" tooltip="Racjin" display="https://en.wikipedia.org/wiki/Racjin" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E54" r:id="rId22" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C77" r:id="rId23" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D77" r:id="rId24" tooltip="Locomotive Games" display="https://en.wikipedia.org/wiki/Locomotive_Games" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E77" r:id="rId25" tooltip="Takara" display="https://en.wikipedia.org/wiki/Takara" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C74" r:id="rId26" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D74" r:id="rId27" tooltip="Genki (company)" display="https://en.wikipedia.org/wiki/Genki_(company)" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E74" r:id="rId28" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C75" r:id="rId29" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D75" r:id="rId30" tooltip="Genki (company)" display="https://en.wikipedia.org/wiki/Genki_(company)" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E75" r:id="rId31" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C87" r:id="rId32" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D87" r:id="rId33" tooltip="Noise (company)" display="https://en.wikipedia.org/wiki/Noise_(company)" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E87" r:id="rId34" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C88" r:id="rId35" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D88" r:id="rId36" tooltip="Noise (company)" display="https://en.wikipedia.org/wiki/Noise_(company)" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E88" r:id="rId37" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C93" r:id="rId38" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D93" r:id="rId39" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E93" r:id="rId40" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C96" r:id="rId41" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D96" r:id="rId42" tooltip="Taito Corporation" display="https://en.wikipedia.org/wiki/Taito_Corporation" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E96" r:id="rId43" tooltip="Taito Corporation" display="https://en.wikipedia.org/wiki/Taito_Corporation" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C97" r:id="rId44" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E97" r:id="rId45" tooltip="Media Factory" display="https://en.wikipedia.org/wiki/Media_Factory" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C99" r:id="rId46" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D99" r:id="rId47" tooltip="Athena (company)" display="https://en.wikipedia.org/wiki/Athena_(company)" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E99" r:id="rId48" tooltip="Athena (company)" display="https://en.wikipedia.org/wiki/Athena_(company)" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C109" r:id="rId49" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D109" r:id="rId50" tooltip="Epoch Co." display="https://en.wikipedia.org/wiki/Epoch_Co." xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E109" r:id="rId51" tooltip="Epoch Co." display="https://en.wikipedia.org/wiki/Epoch_Co." xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C107" r:id="rId52" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D107" r:id="rId53" tooltip="Epoch Co." display="https://en.wikipedia.org/wiki/Epoch_Co." xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E107" r:id="rId54" tooltip="Epoch Co." display="https://en.wikipedia.org/wiki/Epoch_Co." xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C108" r:id="rId55" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D108" r:id="rId56" tooltip="Epoch Co." display="https://en.wikipedia.org/wiki/Epoch_Co." xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E108" r:id="rId57" tooltip="Epoch Co." display="https://en.wikipedia.org/wiki/Epoch_Co." xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C118" r:id="rId58" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D118" r:id="rId59" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E118" r:id="rId60" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C129" r:id="rId61" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D129" r:id="rId62" tooltip="Namco" display="https://en.wikipedia.org/wiki/Namco" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E129" r:id="rId63" tooltip="Namco" display="https://en.wikipedia.org/wiki/Namco" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C370" r:id="rId64" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D370" r:id="rId65" tooltip="Chunsoft" display="https://en.wikipedia.org/wiki/Chunsoft" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E370" r:id="rId66" tooltip="Chunsoft" display="https://en.wikipedia.org/wiki/Chunsoft" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C148" r:id="rId67" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D148" r:id="rId68" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E148" r:id="rId69" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C152" r:id="rId70" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D152" r:id="rId71" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E152" r:id="rId72" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C157" r:id="rId73" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D157" r:id="rId74" tooltip="Culture Brain" display="https://en.wikipedia.org/wiki/Culture_Brain" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E157" r:id="rId75" tooltip="Culture Brain" display="https://en.wikipedia.org/wiki/Culture_Brain" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C159" r:id="rId76" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C172" r:id="rId77" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D172" r:id="rId78" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E172" r:id="rId79" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C182" r:id="rId80" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D182" r:id="rId81" tooltip="HAL Laboratory" display="https://en.wikipedia.org/wiki/HAL_Laboratory" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E182" r:id="rId82" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C199" r:id="rId83" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E199" r:id="rId84" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C200" r:id="rId85" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="D200" r:id="rId86" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E200" r:id="rId87" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C183" r:id="rId88" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D183" r:id="rId89" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E183" r:id="rId90" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C201" r:id="rId91" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D201" r:id="rId92" tooltip="ASCII (company)" display="https://en.wikipedia.org/wiki/ASCII_(company)" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E201" r:id="rId93" tooltip="ASCII (company)" display="https://en.wikipedia.org/wiki/ASCII_(company)" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C184" r:id="rId94" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D184" r:id="rId95" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E184" r:id="rId96" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C188" r:id="rId97" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D188" r:id="rId98" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E188" r:id="rId99" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C189" r:id="rId100" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D189" r:id="rId101" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E189" r:id="rId102" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C192" r:id="rId103" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D192" r:id="rId104" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E192" r:id="rId105" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C193" r:id="rId106" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D193" r:id="rId107" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E193" r:id="rId108" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C194" r:id="rId109" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D194" r:id="rId110" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E194" r:id="rId111" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C191" r:id="rId112" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D191" r:id="rId113" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E191" r:id="rId114" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C195" r:id="rId115" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D195" r:id="rId116" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E195" r:id="rId117" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C198" r:id="rId118" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D198" r:id="rId119" tooltip="Takara" display="https://en.wikipedia.org/wiki/Takara" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E198" r:id="rId120" tooltip="Takara" display="https://en.wikipedia.org/wiki/Takara" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C206" r:id="rId121" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E206" r:id="rId122" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="C212" r:id="rId123" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D212" r:id="rId124" tooltip="Yuke's" display="https://en.wikipedia.org/wiki/Yuke%27s" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E212" r:id="rId125" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C224" r:id="rId126" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E224" r:id="rId127" tooltip="Koei" display="https://en.wikipedia.org/wiki/Koei" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C225" r:id="rId128" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D225" r:id="rId129" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E225" r:id="rId130" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C226" r:id="rId131" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D226" r:id="rId132" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="E226" r:id="rId133" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C230" r:id="rId134" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D230" r:id="rId135" tooltip="Tokyo Electron" display="https://en.wikipedia.org/wiki/Tokyo_Electron" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="E230" r:id="rId136" tooltip="Tokyo Electron" display="https://en.wikipedia.org/wiki/Tokyo_Electron" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C237" r:id="rId137" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D237" r:id="rId138" tooltip="Technology and Entertainment Software" display="https://en.wikipedia.org/wiki/Technology_and_Entertainment_Software" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E237" r:id="rId139" tooltip="Technology and Entertainment Software" display="https://en.wikipedia.org/wiki/Technology_and_Entertainment_Software" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C253" r:id="rId140" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D253" r:id="rId141" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="E253" r:id="rId142" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="C278" r:id="rId143" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D278" r:id="rId144" tooltip="Namco Bandai Games" display="https://en.wikipedia.org/wiki/Namco_Bandai_Games" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E278" r:id="rId145" tooltip="Bandai" display="https://en.wikipedia.org/wiki/Bandai" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C279" r:id="rId146" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D279" r:id="rId147" tooltip="Yuke's" display="https://en.wikipedia.org/wiki/Yuke%27s" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E279" r:id="rId148" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C280" r:id="rId149" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D280" r:id="rId150" tooltip="Yuke's" display="https://en.wikipedia.org/wiki/Yuke%27s" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E280" r:id="rId151" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C295" r:id="rId152" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D295" r:id="rId153" tooltip="Culture Brain" display="https://en.wikipedia.org/wiki/Culture_Brain" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E295" r:id="rId154" tooltip="Culture Brain" display="https://en.wikipedia.org/wiki/Culture_Brain" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C297" r:id="rId155" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D297" r:id="rId156" tooltip="Pack-In-Video" display="https://en.wikipedia.org/wiki/Pack-In-Video" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E297" r:id="rId157" tooltip="Pack-In-Video" display="https://en.wikipedia.org/wiki/Pack-In-Video" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C298" r:id="rId158" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D298" r:id="rId159" tooltip="VIS Entertainment" display="https://en.wikipedia.org/wiki/VIS_Entertainment" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E298" r:id="rId160" tooltip="VIS Entertainment" display="https://en.wikipedia.org/wiki/VIS_Entertainment" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C302" r:id="rId161" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C304" r:id="rId162" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D304" r:id="rId163" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E304" r:id="rId164" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C307" r:id="rId165" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D307" r:id="rId166" tooltip="Telenet Japan" display="https://en.wikipedia.org/wiki/Telenet_Japan" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E307" r:id="rId167" tooltip="Telenet Japan" display="https://en.wikipedia.org/wiki/Telenet_Japan" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C308" r:id="rId168" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D308" r:id="rId169" tooltip="Bandai" display="https://en.wikipedia.org/wiki/Bandai" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E308" r:id="rId170" tooltip="Bandai" display="https://en.wikipedia.org/wiki/Bandai" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C316" r:id="rId171" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D316" r:id="rId172" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E316" r:id="rId173" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C324" r:id="rId174" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D324" r:id="rId175" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E324" r:id="rId176" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="C327" r:id="rId177" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D327" r:id="rId178" tooltip="Athena (company)" display="https://en.wikipedia.org/wiki/Athena_(company)" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E327" r:id="rId179" tooltip="Athena (company)" display="https://en.wikipedia.org/wiki/Athena_(company)" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C328" r:id="rId180" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D328" r:id="rId181" tooltip="Culture Brain" display="https://en.wikipedia.org/wiki/Culture_Brain" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E328" r:id="rId182" tooltip="Culture Brain" display="https://en.wikipedia.org/wiki/Culture_Brain" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C329" r:id="rId183" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D329" r:id="rId184" tooltip="Compile (publisher)" display="https://en.wikipedia.org/wiki/Compile_(publisher)" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E329" r:id="rId185" tooltip="Compile (publisher)" display="https://en.wikipedia.org/wiki/Compile_(publisher)" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C330" r:id="rId186" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D330" r:id="rId187" tooltip="Compile (publisher)" display="https://en.wikipedia.org/wiki/Compile_(publisher)" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E330" r:id="rId188" tooltip="Compile (publisher)" display="https://en.wikipedia.org/wiki/Compile_(publisher)" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C353" r:id="rId189" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D353" r:id="rId190" tooltip="Red Entertainment" display="https://en.wikipedia.org/wiki/Red_Entertainment" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E353" r:id="rId191" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C363" r:id="rId192" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D363" r:id="rId193" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="E363" r:id="rId194" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C367" r:id="rId195" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D367" r:id="rId196" tooltip="Culture Brain" display="https://en.wikipedia.org/wiki/Culture_Brain" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="E367" r:id="rId197" tooltip="Culture Brain" display="https://en.wikipedia.org/wiki/Culture_Brain" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C371" r:id="rId198" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="D371" r:id="rId199" tooltip="Genki (company)" display="https://en.wikipedia.org/wiki/Genki_(company)" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E371" r:id="rId200" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C372" r:id="rId201" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="D372" r:id="rId202" tooltip="Treasure (company)" display="https://en.wikipedia.org/wiki/Treasure_(company)" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E372" r:id="rId203" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C396" r:id="rId204" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="D396" r:id="rId205" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E396" r:id="rId206" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C399" r:id="rId207" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="D399" r:id="rId208" tooltip="Banpresto" display="https://en.wikipedia.org/wiki/Banpresto" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E399" r:id="rId209" tooltip="Banpresto" display="https://en.wikipedia.org/wiki/Banpresto" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C400" r:id="rId210" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="D400" r:id="rId211" tooltip="Banpresto" display="https://en.wikipedia.org/wiki/Banpresto" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E400" r:id="rId212" tooltip="Banpresto" display="https://en.wikipedia.org/wiki/Banpresto" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C405" r:id="rId213" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="D405" r:id="rId214" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E405" r:id="rId215" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C406" r:id="rId216" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="D406" r:id="rId217" tooltip="Bandai" display="https://en.wikipedia.org/wiki/Bandai" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E406" r:id="rId218" tooltip="Bandai" display="https://en.wikipedia.org/wiki/Bandai" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C409" r:id="rId219" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E409" r:id="rId220" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C436" r:id="rId221" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="D436" r:id="rId222" tooltip="Yuke's" display="https://en.wikipedia.org/wiki/Yuke%27s" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E436" r:id="rId223" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C442" r:id="rId224" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="D442" r:id="rId225" tooltip="Syn Sophia" display="https://en.wikipedia.org/wiki/Syn_Sophia" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E442" r:id="rId226" tooltip="Asmik Ace Entertainment" display="https://en.wikipedia.org/wiki/Asmik_Ace_Entertainment" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C443" r:id="rId227" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="D443" r:id="rId228" tooltip="Syn Sophia" display="https://en.wikipedia.org/wiki/Syn_Sophia" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E443" r:id="rId229" tooltip="Asmik Ace Entertainment" display="https://en.wikipedia.org/wiki/Asmik_Ace_Entertainment" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C460" r:id="rId230" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="D460" r:id="rId231" tooltip="Givro" display="https://en.wikipedia.org/wiki/Givro" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E460" r:id="rId232" tooltip="Enix" display="https://en.wikipedia.org/wiki/Enix" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C470" r:id="rId233" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="D470" r:id="rId234" tooltip="Athena (company)" display="https://en.wikipedia.org/wiki/Athena_(company)" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E470" r:id="rId235" tooltip="Athena (company)" display="https://en.wikipedia.org/wiki/Athena_(company)" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C474" r:id="rId236" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E474" r:id="rId237" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C45" r:id="rId238" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="D45" r:id="rId239" tooltip="Eutechnyx" display="https://en.wikipedia.org/wiki/Eutechnyx" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E45" r:id="rId240" tooltip="SouthPeak Games" display="https://en.wikipedia.org/wiki/SouthPeak_Games" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C55" r:id="rId241" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="D55" r:id="rId242" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="C133" r:id="rId243" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="D133" r:id="rId244" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E133" r:id="rId245" tooltip="SouthPeak Games" display="https://en.wikipedia.org/wiki/SouthPeak_Games" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C158" r:id="rId246" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E158" r:id="rId247" tooltip="Natsume (company)" display="https://en.wikipedia.org/wiki/Natsume_(company)" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C162" r:id="rId248" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="D162" r:id="rId249" tooltip="Ambrella" display="https://en.wikipedia.org/wiki/Ambrella" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E162" r:id="rId250" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="C238" r:id="rId251" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="D238" r:id="rId252" tooltip="Capcom" display="https://en.wikipedia.org/wiki/Capcom" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E238" r:id="rId253" tooltip="Capcom" display="https://en.wikipedia.org/wiki/Capcom" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C300" r:id="rId254" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="D300" r:id="rId255" tooltip="Quest Corporation" display="https://en.wikipedia.org/wiki/Quest_Corporation" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E300" r:id="rId256" tooltip="Atlus" display="https://en.wikipedia.org/wiki/Atlus" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="C340" r:id="rId257" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="D340" r:id="rId258" tooltip="Genki (company)" display="https://en.wikipedia.org/wiki/Genki_(company)" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E340" r:id="rId259" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E339" r:id="rId260" tooltip="SouthPeak Games" display="https://en.wikipedia.org/wiki/SouthPeak_Games" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="C385" r:id="rId261" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="D385" r:id="rId262" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E385" r:id="rId263" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="C397" r:id="rId264" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="D397" r:id="rId265" tooltip="Athena (company)" display="https://en.wikipedia.org/wiki/Athena_(company)" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E397" r:id="rId266" tooltip="UFO Interactive Games" display="https://en.wikipedia.org/wiki/UFO_Interactive_Games" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="C428" r:id="rId267" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="D428" r:id="rId268" tooltip="Pacific Coast Power &amp; Light" display="https://en.wikipedia.org/wiki/Pacific_Coast_Power_%26_Light" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E428" r:id="rId269" tooltip="BAM! Entertainment" display="https://en.wikipedia.org/wiki/BAM!_Entertainment" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="E427" r:id="rId270" tooltip="Takara" display="https://en.wikipedia.org/wiki/Takara" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="C3" r:id="rId271" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="D3" r:id="rId272" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="E3" r:id="rId273" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="C9" r:id="rId274" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="D9" r:id="rId275" tooltip="Paradigm Entertainment" display="https://en.wikipedia.org/wiki/Paradigm_Entertainment" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="E9" r:id="rId276" tooltip="Video System" display="https://en.wikipedia.org/wiki/Video_System" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="C10" r:id="rId277" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="D10" r:id="rId278" tooltip="Pacific Coast Power &amp; Light" display="https://en.wikipedia.org/wiki/Pacific_Coast_Power_%26_Light" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="E10" r:id="rId279" tooltip="ASCII (company)" display="https://en.wikipedia.org/wiki/ASCII_(company)" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="C27" r:id="rId280" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="D27" r:id="rId281" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="E27" r:id="rId282" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="E402" r:id="rId283" tooltip="Taito Corporation" display="https://en.wikipedia.org/wiki/Taito_Corporation" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="C34" r:id="rId284" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="D34" r:id="rId285" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="E34" r:id="rId286" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="C35" r:id="rId287" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="D35" r:id="rId288" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="E35" r:id="rId289" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="C44" r:id="rId290" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="D44" r:id="rId291" tooltip="Paradigm Entertainment" display="https://en.wikipedia.org/wiki/Paradigm_Entertainment" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="E44" r:id="rId292" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="C48" r:id="rId293" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="D48" r:id="rId294" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="E48" r:id="rId295" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="C53" r:id="rId296" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="D53" r:id="rId297" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="E53" r:id="rId298" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="C56" r:id="rId299" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="D56" r:id="rId300" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="E56" r:id="rId301" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="C61" r:id="rId302" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="D61" r:id="rId303" tooltip="Argonaut Software" display="https://en.wikipedia.org/wiki/Argonaut_Software" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="E61" r:id="rId304" tooltip="Ubi Soft Entertainment" display="https://en.wikipedia.org/wiki/Ubi_Soft_Entertainment" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="C64" r:id="rId305" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="E64" r:id="rId306" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="C67" r:id="rId307" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="D67" r:id="rId308" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="E67" r:id="rId309" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="C68" r:id="rId310" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="D68" r:id="rId311" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="E68" r:id="rId312" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="C70" r:id="rId313" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="E70" r:id="rId314" tooltip="Sunsoft" display="https://en.wikipedia.org/wiki/Sunsoft" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="C71" r:id="rId315" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="E71" r:id="rId316" tooltip="Sunsoft" display="https://en.wikipedia.org/wiki/Sunsoft" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="C76" r:id="rId317" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="D76" r:id="rId318" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="E76" r:id="rId319" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="E457" r:id="rId320" tooltip="SETA Corporation" display="https://en.wikipedia.org/wiki/SETA_Corporation" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="C91" r:id="rId321" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="D91" r:id="rId322" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="E91" r:id="rId323" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="C94" r:id="rId324" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="D94" r:id="rId325" tooltip="Kronos Digital Entertainment" display="https://en.wikipedia.org/wiki/Kronos_Digital_Entertainment" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="E94" r:id="rId326" tooltip="Vic Tokai" display="https://en.wikipedia.org/wiki/Vic_Tokai" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="C100" r:id="rId327" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="D100" r:id="rId328" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="E100" r:id="rId329" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="C105" r:id="rId330" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="D105" r:id="rId331" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="E105" r:id="rId332" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="C106" r:id="rId333" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="D106" r:id="rId334" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="E106" r:id="rId335" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="C111" r:id="rId336" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="D111" r:id="rId337" tooltip="Produce!" display="https://en.wikipedia.org/wiki/Produce!" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="C122" r:id="rId338" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="D122" r:id="rId339" tooltip="Left Field Productions" display="https://en.wikipedia.org/wiki/Left_Field_Productions" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="E122" r:id="rId340" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="C123" r:id="rId341" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="D123" r:id="rId342" tooltip="Acclaim Cheltenham" display="https://en.wikipedia.org/wiki/Acclaim_Cheltenham" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="E123" r:id="rId343" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="C124" r:id="rId344" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="D124" r:id="rId345" tooltip="Acclaim Cheltenham" display="https://en.wikipedia.org/wiki/Acclaim_Cheltenham" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="E124" r:id="rId346" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="C127" r:id="rId347" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="D127" r:id="rId348" tooltip="Paradigm Entertainment" display="https://en.wikipedia.org/wiki/Paradigm_Entertainment" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="E127" r:id="rId349" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="C142" r:id="rId350" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="D142" r:id="rId351" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="E142" r:id="rId352" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="C125" r:id="rId353" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="D125" r:id="rId354" tooltip="Human Entertainment" display="https://en.wikipedia.org/wiki/Human_Entertainment" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="E125" r:id="rId355" tooltip="Ubi Soft Entertainment" display="https://en.wikipedia.org/wiki/Ubi_Soft_Entertainment" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="C132" r:id="rId356" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="D132" r:id="rId357" tooltip="EA Canada" display="https://en.wikipedia.org/wiki/EA_Canada" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="E132" r:id="rId358" tooltip="EA Sports" display="https://en.wikipedia.org/wiki/EA_Sports" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="C134" r:id="rId359" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="D134" r:id="rId360" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="C137" r:id="rId361" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="D137" r:id="rId362" tooltip="Culture Brain" display="https://en.wikipedia.org/wiki/Culture_Brain" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="E137" r:id="rId363" tooltip="Natsume (company)" display="https://en.wikipedia.org/wiki/Natsume_(company)" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="C143" r:id="rId364" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="D143" r:id="rId365" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="E143" r:id="rId366" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="C147" r:id="rId367" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="D147" r:id="rId368" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="E147" r:id="rId369" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="C153" r:id="rId370" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="D153" r:id="rId371" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="E153" r:id="rId372" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="C155" r:id="rId373" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="D155" r:id="rId374" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="E155" r:id="rId375" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="C156" r:id="rId376" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="D156" r:id="rId377" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="E156" r:id="rId378" tooltip="Ocean Software" display="https://en.wikipedia.org/wiki/Ocean_Software" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="E79" r:id="rId379" tooltip="Infogrames Multimedia" display="https://en.wikipedia.org/wiki/Infogrames_Multimedia" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="C161" r:id="rId380" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="D161" r:id="rId381" tooltip="Software Creations (UK)" display="https://en.wikipedia.org/wiki/Software_Creations_(UK)" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="E161" r:id="rId382" tooltip="GT Interactive Software" display="https://en.wikipedia.org/wiki/GT_Interactive_Software" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="C169" r:id="rId383" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="D169" r:id="rId384" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="E169" r:id="rId385" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="C174" r:id="rId386" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="D174" r:id="rId387" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="E174" r:id="rId388" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="C179" r:id="rId389" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="D179" r:id="rId390" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="E179" r:id="rId391" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="C177" r:id="rId392" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="D177" r:id="rId393" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="E177" r:id="rId394" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="C178" r:id="rId395" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="D178" r:id="rId396" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="E178" r:id="rId397" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="C180" r:id="rId398" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="D180" r:id="rId399" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="E180" r:id="rId400" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="C187" r:id="rId401" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="D187" r:id="rId402" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="E187" r:id="rId403" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="C207" r:id="rId404" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="D207" r:id="rId405" tooltip="HAL Laboratory" display="https://en.wikipedia.org/wiki/HAL_Laboratory" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="E207" r:id="rId406" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="C208" r:id="rId407" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="D208" r:id="rId408" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="E208" r:id="rId409" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="C411" r:id="rId410" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="D411" r:id="rId411" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="E411" r:id="rId412" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="C412" r:id="rId413" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="D412" r:id="rId414" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="E412" r:id="rId415" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="C215" r:id="rId416" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="D215" r:id="rId417" tooltip="Big Bang" display="https://en.wikipedia.org/wiki/Big_Bang" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="E215" r:id="rId418" tooltip="Infogrames" display="https://en.wikipedia.org/wiki/Infogrames" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="C223" r:id="rId419" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="D223" r:id="rId420" tooltip="Capcom" display="https://en.wikipedia.org/wiki/Capcom" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="C228" r:id="rId421" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="D228" r:id="rId422" tooltip="Camelot Software Planning" display="https://en.wikipedia.org/wiki/Camelot_Software_Planning" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="E228" r:id="rId423" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="C229" r:id="rId424" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="D229" r:id="rId425" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="E229" r:id="rId426" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="C231" r:id="rId427" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="D231" r:id="rId428" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="E231" r:id="rId429" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="C232" r:id="rId430" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="D232" r:id="rId431" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="E232" r:id="rId432" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="C233" r:id="rId433" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="D233" r:id="rId434" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="E233" r:id="rId435" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="C235" r:id="rId436" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="D235" r:id="rId437" tooltip="Camelot Software Planning" display="https://en.wikipedia.org/wiki/Camelot_Software_Planning" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="E235" r:id="rId438" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="C242" r:id="rId439" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="D242" r:id="rId440" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="E242" r:id="rId441" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="C247" r:id="rId442" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="D247" r:id="rId443" tooltip="Treasure (company)" display="https://en.wikipedia.org/wiki/Treasure_(company)" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="E247" r:id="rId444" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="C257" r:id="rId445" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="D257" r:id="rId446" tooltip="Genki (company)" display="https://en.wikipedia.org/wiki/Genki_(company)" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="C260" r:id="rId447" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="D260" r:id="rId448" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="E260" r:id="rId449" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="C261" r:id="rId450" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="D261" r:id="rId451" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="E261" r:id="rId452" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="C269" r:id="rId453" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="D269" r:id="rId454" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="E269" r:id="rId455" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="C270" r:id="rId456" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="D270" r:id="rId457" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="E270" r:id="rId458" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="C301" r:id="rId459" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="D301" r:id="rId460" tooltip="Treyarch" display="https://en.wikipedia.org/wiki/Treyarch" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="E301" r:id="rId461" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="C305" r:id="rId462" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="D305" r:id="rId463" tooltip="Intelligent Systems" display="https://en.wikipedia.org/wiki/Intelligent_Systems" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="E305" r:id="rId464" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="C309" r:id="rId465" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="D309" r:id="rId466" tooltip="Takara" display="https://en.wikipedia.org/wiki/Takara" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="E309" r:id="rId467" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="C310" r:id="rId468" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="D310" r:id="rId469" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="E310" r:id="rId470" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="C314" r:id="rId471" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="E314" r:id="rId472" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="C320" r:id="rId473" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="D320" r:id="rId474" tooltip="HAL Laboratory" display="https://en.wikipedia.org/wiki/HAL_Laboratory" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="E320" r:id="rId475" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="C321" r:id="rId476" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="D321" r:id="rId477" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="E321" r:id="rId478" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="C322" r:id="rId479" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="D322" r:id="rId480" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="E322" r:id="rId481" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="C334" r:id="rId482" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="D334" r:id="rId483" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="E334" r:id="rId484" tooltip="Imagineer (Japanese company)" display="https://en.wikipedia.org/wiki/Imagineer_(Japanese_company)" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="E164" r:id="rId485" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="E121" r:id="rId486" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="C348" r:id="rId487" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="D348" r:id="rId488" tooltip="Angel Studios" display="https://en.wikipedia.org/wiki/Angel_Studios" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="C369" r:id="rId489" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="D369" r:id="rId490" tooltip="ICOM Simulations" display="https://en.wikipedia.org/wiki/ICOM_Simulations" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="E369" r:id="rId491" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="C374" r:id="rId492" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="D374" r:id="rId493" tooltip="Racjin" display="https://en.wikipedia.org/wiki/Racjin" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="E374" r:id="rId494" tooltip="Atlus" display="https://en.wikipedia.org/wiki/Atlus" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="C384" r:id="rId495" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="D384" r:id="rId496" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="E384" r:id="rId497" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="C387" r:id="rId498" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="D387" r:id="rId499" tooltip="LucasArts" display="https://en.wikipedia.org/wiki/LucasArts" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="E387" r:id="rId500" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="C389" r:id="rId501" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="D389" r:id="rId502" tooltip="Factor 5" display="https://en.wikipedia.org/wiki/Factor_5" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="E389" r:id="rId503" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="C390" r:id="rId504" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="D390" r:id="rId505" tooltip="LucasArts" display="https://en.wikipedia.org/wiki/LucasArts" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="E390" r:id="rId506" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="C398" r:id="rId507" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="D398" r:id="rId508" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="E398" r:id="rId509" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="C401" r:id="rId510" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="D401" r:id="rId511" tooltip="HAL Laboratory" display="https://en.wikipedia.org/wiki/HAL_Laboratory" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="E401" r:id="rId512" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="C422" r:id="rId513" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="D422" r:id="rId514" tooltip="Snowblind Studios" display="https://en.wikipedia.org/wiki/Snowblind_Studios" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="E422" r:id="rId515" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="C423" r:id="rId516" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="D423" r:id="rId517" tooltip="Snowblind Studios" display="https://en.wikipedia.org/wiki/Snowblind_Studios" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="E423" r:id="rId518" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="C424" r:id="rId519" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="D424" r:id="rId520" tooltip="Boss Game Studios" display="https://en.wikipedia.org/wiki/Boss_Game_Studios" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="E424" r:id="rId521" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="C425" r:id="rId522" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="D425" r:id="rId523" tooltip="Saffire Corporation" display="https://en.wikipedia.org/wiki/Saffire_Corporation" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="E425" r:id="rId524" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="C432" r:id="rId525" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="D432" r:id="rId526" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="E432" r:id="rId527" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="C430" r:id="rId528" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="D430" r:id="rId529" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="E430" r:id="rId530" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="C435" r:id="rId531" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="D435" r:id="rId532" tooltip="Boss Game Studios" display="https://en.wikipedia.org/wiki/Boss_Game_Studios" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="E435" r:id="rId533" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="C444" r:id="rId534" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="D444" r:id="rId535" tooltip="Eden Studios" display="https://en.wikipedia.org/wiki/Eden_Studios" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="E444" r:id="rId536" tooltip="Infogrames Entertainment, SA" display="https://en.wikipedia.org/wiki/Infogrames_Entertainment,_SA" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="C447" r:id="rId537" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="D447" r:id="rId538" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="E447" r:id="rId539" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="C448" r:id="rId540" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
+    <hyperlink ref="D448" r:id="rId541" tooltip="WMS Industries" display="https://en.wikipedia.org/wiki/WMS_Industries" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="E448" r:id="rId542" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="C455" r:id="rId543" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="D455" r:id="rId544" tooltip="Warthog Games" display="https://en.wikipedia.org/wiki/Warthog_Games" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
+    <hyperlink ref="C458" r:id="rId545" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="D458" r:id="rId546" location="Omega_Force" tooltip="Koei Tecmo" display="https://en.wikipedia.org/wiki/Koei_Tecmo - Omega_Force" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
+    <hyperlink ref="E458" r:id="rId547" tooltip="Koei" display="https://en.wikipedia.org/wiki/Koei" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="C467" r:id="rId548" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
+    <hyperlink ref="D467" r:id="rId549" tooltip="Syn Sophia" display="https://en.wikipedia.org/wiki/Syn_Sophia" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="E467" r:id="rId550" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
+    <hyperlink ref="C472" r:id="rId551" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
+    <hyperlink ref="D472" r:id="rId552" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
+    <hyperlink ref="E472" r:id="rId553" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
+    <hyperlink ref="C375" r:id="rId554" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
+    <hyperlink ref="D375" r:id="rId555" tooltip="Racjin" display="https://en.wikipedia.org/wiki/Racjin" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
+    <hyperlink ref="E375" r:id="rId556" tooltip="Atlus" display="https://en.wikipedia.org/wiki/Atlus" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
+    <hyperlink ref="F375" r:id="rId557" tooltip="Australia" display="https://en.wikipedia.org/wiki/Australia" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
+    <hyperlink ref="C13" r:id="rId558" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
+    <hyperlink ref="D13" r:id="rId559" tooltip="Human Entertainment" display="https://en.wikipedia.org/wiki/Human_Entertainment" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
+    <hyperlink ref="E13" r:id="rId560" tooltip="Human Entertainment" display="https://en.wikipedia.org/wiki/Human_Entertainment" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
+    <hyperlink ref="C69" r:id="rId561" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="D69" r:id="rId562" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="E69" r:id="rId563" tooltip="BigBen Interactive" display="https://en.wikipedia.org/wiki/BigBen_Interactive" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="E214" r:id="rId564" tooltip="Hudson Soft" display="https://en.wikipedia.org/wiki/Hudson_Soft" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="C338" r:id="rId565" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="D338" r:id="rId566" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="E338" r:id="rId567" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="C18" r:id="rId568" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
+    <hyperlink ref="D18" r:id="rId569" tooltip="High Voltage Software" display="https://en.wikipedia.org/wiki/High_Voltage_Software" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="E18" r:id="rId570" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
+    <hyperlink ref="C22" r:id="rId571" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
+    <hyperlink ref="D22" r:id="rId572" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
+    <hyperlink ref="E22" r:id="rId573" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
+    <hyperlink ref="C24" r:id="rId574" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
+    <hyperlink ref="D24" r:id="rId575" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
+    <hyperlink ref="E24" r:id="rId576" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
+    <hyperlink ref="C26" r:id="rId577" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
+    <hyperlink ref="D26" r:id="rId578" tooltip="Climax Group" display="https://en.wikipedia.org/wiki/Climax_Group" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
+    <hyperlink ref="E26" r:id="rId579" tooltip="Crave Entertainment" display="https://en.wikipedia.org/wiki/Crave_Entertainment" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
+    <hyperlink ref="C37" r:id="rId580" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
+    <hyperlink ref="D37" r:id="rId581" location="Defunct" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ - Defunct" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
+    <hyperlink ref="E37" r:id="rId582" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
+    <hyperlink ref="C41" r:id="rId583" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
+    <hyperlink ref="D41" r:id="rId584" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
+    <hyperlink ref="E41" r:id="rId585" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
+    <hyperlink ref="C43" r:id="rId586" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
+    <hyperlink ref="D43" r:id="rId587" tooltip="Climax Group" display="https://en.wikipedia.org/wiki/Climax_Group" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
+    <hyperlink ref="E43" r:id="rId588" tooltip="Crave Entertainment" display="https://en.wikipedia.org/wiki/Crave_Entertainment" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
+    <hyperlink ref="C58" r:id="rId589" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
+    <hyperlink ref="D58" r:id="rId590" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
+    <hyperlink ref="E58" r:id="rId591" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
+    <hyperlink ref="C60" r:id="rId592" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
+    <hyperlink ref="D60" r:id="rId593" tooltip="Point of View, Inc." display="https://en.wikipedia.org/wiki/Point_of_View,_Inc." xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="E60" r:id="rId594" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
+    <hyperlink ref="C65" r:id="rId595" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
+    <hyperlink ref="D65" r:id="rId596" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
+    <hyperlink ref="E65" r:id="rId597" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
+    <hyperlink ref="C81" r:id="rId598" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
+    <hyperlink ref="D81" r:id="rId599" tooltip="Interplay Entertainment" display="https://en.wikipedia.org/wiki/Interplay_Entertainment" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
+    <hyperlink ref="E81" r:id="rId600" tooltip="Interplay Entertainment" display="https://en.wikipedia.org/wiki/Interplay_Entertainment" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
+    <hyperlink ref="C84" r:id="rId601" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
+    <hyperlink ref="E84" r:id="rId602" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
+    <hyperlink ref="C110" r:id="rId603" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
+    <hyperlink ref="D110" r:id="rId604" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
+    <hyperlink ref="E110" r:id="rId605" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
+    <hyperlink ref="C119" r:id="rId606" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
+    <hyperlink ref="D119" r:id="rId607" tooltip="Realtime Associates" display="https://en.wikipedia.org/wiki/Realtime_Associates" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
+    <hyperlink ref="E119" r:id="rId608" tooltip="NewKidCo" display="https://en.wikipedia.org/wiki/NewKidCo" xr:uid="{00000000-0004-0000-0000-00005F020000}"/>
+    <hyperlink ref="C120" r:id="rId609" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
+    <hyperlink ref="D120" r:id="rId610" tooltip="Realtime Associates" display="https://en.wikipedia.org/wiki/Realtime_Associates" xr:uid="{00000000-0004-0000-0000-000061020000}"/>
+    <hyperlink ref="E120" r:id="rId611" tooltip="NewKidCo" display="https://en.wikipedia.org/wiki/NewKidCo" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
+    <hyperlink ref="C140" r:id="rId612" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000063020000}"/>
+    <hyperlink ref="D140" r:id="rId613" tooltip="Underground Development" display="https://en.wikipedia.org/wiki/Underground_Development" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
+    <hyperlink ref="E140" r:id="rId614" tooltip="Fox Interactive" display="https://en.wikipedia.org/wiki/Fox_Interactive" xr:uid="{00000000-0004-0000-0000-000065020000}"/>
+    <hyperlink ref="C154" r:id="rId615" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
+    <hyperlink ref="D154" r:id="rId616" tooltip="Westwood Studios" display="https://en.wikipedia.org/wiki/Westwood_Studios" xr:uid="{00000000-0004-0000-0000-000067020000}"/>
+    <hyperlink ref="E154" r:id="rId617" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
+    <hyperlink ref="C175" r:id="rId618" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000069020000}"/>
+    <hyperlink ref="D175" r:id="rId619" tooltip="Factor 5" display="https://en.wikipedia.org/wiki/Factor_5" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
+    <hyperlink ref="E175" r:id="rId620" tooltip="LucasArts" display="https://en.wikipedia.org/wiki/LucasArts" xr:uid="{00000000-0004-0000-0000-00006B020000}"/>
+    <hyperlink ref="C176" r:id="rId621" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
+    <hyperlink ref="D176" r:id="rId622" tooltip="Paradigm Entertainment" display="https://en.wikipedia.org/wiki/Paradigm_Entertainment" xr:uid="{00000000-0004-0000-0000-00006D020000}"/>
+    <hyperlink ref="E176" r:id="rId623" tooltip="Infogrames" display="https://en.wikipedia.org/wiki/Infogrames" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
+    <hyperlink ref="C185" r:id="rId624" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00006F020000}"/>
+    <hyperlink ref="D185" r:id="rId625" tooltip="GameTek" display="https://en.wikipedia.org/wiki/GameTek" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
+    <hyperlink ref="E185" r:id="rId626" tooltip="GameTek" display="https://en.wikipedia.org/wiki/GameTek" xr:uid="{00000000-0004-0000-0000-000071020000}"/>
+    <hyperlink ref="C203" r:id="rId627" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
+    <hyperlink ref="D203" r:id="rId628" tooltip="Angel Studios" display="https://en.wikipedia.org/wiki/Angel_Studios" xr:uid="{00000000-0004-0000-0000-000073020000}"/>
+    <hyperlink ref="E203" r:id="rId629" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
+    <hyperlink ref="C219" r:id="rId630" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000075020000}"/>
+    <hyperlink ref="D219" r:id="rId631" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
+    <hyperlink ref="E219" r:id="rId632" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-000077020000}"/>
+    <hyperlink ref="C220" r:id="rId633" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
+    <hyperlink ref="D220" r:id="rId634" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
+    <hyperlink ref="E220" r:id="rId635" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
+    <hyperlink ref="C221" r:id="rId636" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
+    <hyperlink ref="D221" r:id="rId637" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
+    <hyperlink ref="E221" r:id="rId638" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
+    <hyperlink ref="C244" r:id="rId639" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
+    <hyperlink ref="D244" r:id="rId640" tooltip="Backbone Entertainment" display="https://en.wikipedia.org/wiki/Backbone_Entertainment" xr:uid="{00000000-0004-0000-0000-00007F020000}"/>
+    <hyperlink ref="E244" r:id="rId641" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000080020000}"/>
+    <hyperlink ref="C245" r:id="rId642" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000081020000}"/>
+    <hyperlink ref="E245" r:id="rId643" tooltip="GT Interactive Software" display="https://en.wikipedia.org/wiki/GT_Interactive_Software" xr:uid="{00000000-0004-0000-0000-000082020000}"/>
+    <hyperlink ref="C251" r:id="rId644" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000083020000}"/>
+    <hyperlink ref="D251" r:id="rId645" tooltip="Mind's Eye Productions" display="https://en.wikipedia.org/wiki/Mind%27s_Eye_Productions" xr:uid="{00000000-0004-0000-0000-000084020000}"/>
+    <hyperlink ref="E251" r:id="rId646" tooltip="Hasbro Interactive" display="https://en.wikipedia.org/wiki/Hasbro_Interactive" xr:uid="{00000000-0004-0000-0000-000085020000}"/>
+    <hyperlink ref="C258" r:id="rId647" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000086020000}"/>
+    <hyperlink ref="D258" r:id="rId648" location="Defunct" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ - Defunct" xr:uid="{00000000-0004-0000-0000-000087020000}"/>
+    <hyperlink ref="E258" r:id="rId649" tooltip="Namco" display="https://en.wikipedia.org/wiki/Namco" xr:uid="{00000000-0004-0000-0000-000088020000}"/>
+    <hyperlink ref="C262" r:id="rId650" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000089020000}"/>
+    <hyperlink ref="D262" r:id="rId651" location="Defunct" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ - Defunct" xr:uid="{00000000-0004-0000-0000-00008A020000}"/>
+    <hyperlink ref="E262" r:id="rId652" tooltip="Namco" display="https://en.wikipedia.org/wiki/Namco" xr:uid="{00000000-0004-0000-0000-00008B020000}"/>
+    <hyperlink ref="C263" r:id="rId653" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00008C020000}"/>
+    <hyperlink ref="D263" r:id="rId654" tooltip="Stormfront Studios" display="https://en.wikipedia.org/wiki/Stormfront_Studios" xr:uid="{00000000-0004-0000-0000-00008D020000}"/>
+    <hyperlink ref="E263" r:id="rId655" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-00008E020000}"/>
+    <hyperlink ref="C265" r:id="rId656" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00008F020000}"/>
+    <hyperlink ref="D265" r:id="rId657" tooltip="Left Field Productions" display="https://en.wikipedia.org/wiki/Left_Field_Productions" xr:uid="{00000000-0004-0000-0000-000090020000}"/>
+    <hyperlink ref="E265" r:id="rId658" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000091020000}"/>
+    <hyperlink ref="C277" r:id="rId659" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000092020000}"/>
+    <hyperlink ref="D277" r:id="rId660" tooltip="Eurocom" display="https://en.wikipedia.org/wiki/Eurocom" xr:uid="{00000000-0004-0000-0000-000093020000}"/>
+    <hyperlink ref="E277" r:id="rId661" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000094020000}"/>
+    <hyperlink ref="C281" r:id="rId662" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000095020000}"/>
+    <hyperlink ref="D281" r:id="rId663" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000096020000}"/>
+    <hyperlink ref="E281" r:id="rId664" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000097020000}"/>
+    <hyperlink ref="C282" r:id="rId665" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000098020000}"/>
+    <hyperlink ref="D282" r:id="rId666" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000099020000}"/>
+    <hyperlink ref="E282" r:id="rId667" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-00009A020000}"/>
+    <hyperlink ref="C284" r:id="rId668" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00009B020000}"/>
+    <hyperlink ref="D284" r:id="rId669" tooltip="Point of View, Inc." display="https://en.wikipedia.org/wiki/Point_of_View,_Inc." xr:uid="{00000000-0004-0000-0000-00009C020000}"/>
+    <hyperlink ref="E284" r:id="rId670" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-00009D020000}"/>
+    <hyperlink ref="C283" r:id="rId671" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00009E020000}"/>
+    <hyperlink ref="D283" r:id="rId672" tooltip="Point of View, Inc." display="https://en.wikipedia.org/wiki/Point_of_View,_Inc." xr:uid="{00000000-0004-0000-0000-00009F020000}"/>
+    <hyperlink ref="E283" r:id="rId673" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-0000A0020000}"/>
+    <hyperlink ref="C285" r:id="rId674" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000A1020000}"/>
+    <hyperlink ref="D285" r:id="rId675" tooltip="High Voltage Software" display="https://en.wikipedia.org/wiki/High_Voltage_Software" xr:uid="{00000000-0004-0000-0000-0000A2020000}"/>
+    <hyperlink ref="E285" r:id="rId676" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-0000A3020000}"/>
+    <hyperlink ref="C294" r:id="rId677" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000A4020000}"/>
+    <hyperlink ref="E294" r:id="rId678" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision" xr:uid="{00000000-0004-0000-0000-0000A5020000}"/>
+    <hyperlink ref="C323" r:id="rId679" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000A6020000}"/>
+    <hyperlink ref="D323" r:id="rId680" tooltip="Vicarious Visions" display="https://en.wikipedia.org/wiki/Vicarious_Visions" xr:uid="{00000000-0004-0000-0000-0000A7020000}"/>
+    <hyperlink ref="C414" r:id="rId681" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000A8020000}"/>
+    <hyperlink ref="D414" r:id="rId682" tooltip="VIS Entertainment" display="https://en.wikipedia.org/wiki/VIS_Entertainment" xr:uid="{00000000-0004-0000-0000-0000A9020000}"/>
+    <hyperlink ref="E414" r:id="rId683" tooltip="BAM! Entertainment" display="https://en.wikipedia.org/wiki/BAM!_Entertainment" xr:uid="{00000000-0004-0000-0000-0000AA020000}"/>
+    <hyperlink ref="C345" r:id="rId684" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000AB020000}"/>
+    <hyperlink ref="E345" r:id="rId685" tooltip="Crave Entertainment" display="https://en.wikipedia.org/wiki/Crave_Entertainment" xr:uid="{00000000-0004-0000-0000-0000AC020000}"/>
+    <hyperlink ref="C347" r:id="rId686" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000AD020000}"/>
+    <hyperlink ref="D347" r:id="rId687" tooltip="Point of View, Inc." display="https://en.wikipedia.org/wiki/Point_of_View,_Inc." xr:uid="{00000000-0004-0000-0000-0000AE020000}"/>
+    <hyperlink ref="E347" r:id="rId688" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-0000AF020000}"/>
+    <hyperlink ref="C381" r:id="rId689" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000B0020000}"/>
+    <hyperlink ref="D381" r:id="rId690" tooltip="Underground Development" display="https://en.wikipedia.org/wiki/Underground_Development" xr:uid="{00000000-0004-0000-0000-0000B1020000}"/>
+    <hyperlink ref="E381" r:id="rId691" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision" xr:uid="{00000000-0004-0000-0000-0000B2020000}"/>
+    <hyperlink ref="C383" r:id="rId692" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000B3020000}"/>
+    <hyperlink ref="D383" r:id="rId693" tooltip="Edge of Reality" display="https://en.wikipedia.org/wiki/Edge_of_Reality" xr:uid="{00000000-0004-0000-0000-0000B4020000}"/>
+    <hyperlink ref="E383" r:id="rId694" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision" xr:uid="{00000000-0004-0000-0000-0000B5020000}"/>
+    <hyperlink ref="C395" r:id="rId695" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000B6020000}"/>
+    <hyperlink ref="D395" r:id="rId696" tooltip="Boss Game Studios" display="https://en.wikipedia.org/wiki/Boss_Game_Studios" xr:uid="{00000000-0004-0000-0000-0000B7020000}"/>
+    <hyperlink ref="E395" r:id="rId697" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-0000B8020000}"/>
+    <hyperlink ref="C420" r:id="rId698" tooltip="2002 in video gaming" display="https://en.wikipedia.org/wiki/2002_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000B9020000}"/>
+    <hyperlink ref="D420" r:id="rId699" tooltip="Edge of Reality" display="https://en.wikipedia.org/wiki/Edge_of_Reality" xr:uid="{00000000-0004-0000-0000-0000BA020000}"/>
+    <hyperlink ref="E420" r:id="rId700" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision" xr:uid="{00000000-0004-0000-0000-0000BB020000}"/>
+    <hyperlink ref="C429" r:id="rId701" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000BC020000}"/>
+    <hyperlink ref="D429" r:id="rId702" tooltip="Treyarch" display="https://en.wikipedia.org/wiki/Treyarch" xr:uid="{00000000-0004-0000-0000-0000BD020000}"/>
+    <hyperlink ref="E429" r:id="rId703" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-0000BE020000}"/>
+    <hyperlink ref="C450" r:id="rId704" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000BF020000}"/>
+    <hyperlink ref="E450" r:id="rId705" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-0000C0020000}"/>
+    <hyperlink ref="C452" r:id="rId706" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000C1020000}"/>
+    <hyperlink ref="D452" r:id="rId707" tooltip="Inland Productions" display="https://en.wikipedia.org/wiki/Inland_Productions" xr:uid="{00000000-0004-0000-0000-0000C2020000}"/>
+    <hyperlink ref="E452" r:id="rId708" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ" xr:uid="{00000000-0004-0000-0000-0000C3020000}"/>
+    <hyperlink ref="C456" r:id="rId709" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000C4020000}"/>
+    <hyperlink ref="D456" r:id="rId710" tooltip="GameTek" display="https://en.wikipedia.org/wiki/GameTek" xr:uid="{00000000-0004-0000-0000-0000C5020000}"/>
+    <hyperlink ref="C2" r:id="rId711" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000C6020000}"/>
+    <hyperlink ref="D2" r:id="rId712" tooltip="Eurocom" display="https://en.wikipedia.org/wiki/Eurocom" xr:uid="{00000000-0004-0000-0000-0000C7020000}"/>
+    <hyperlink ref="E2" r:id="rId713" tooltip="EA Games" display="https://en.wikipedia.org/wiki/EA_Games" xr:uid="{00000000-0004-0000-0000-0000C8020000}"/>
+    <hyperlink ref="C12" r:id="rId714" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000C9020000}"/>
+    <hyperlink ref="E12" r:id="rId715" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ" xr:uid="{00000000-0004-0000-0000-0000CA020000}"/>
+    <hyperlink ref="C19" r:id="rId716" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000CB020000}"/>
+    <hyperlink ref="D19" r:id="rId717" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment" xr:uid="{00000000-0004-0000-0000-0000CC020000}"/>
+    <hyperlink ref="E19" r:id="rId718" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-0000CD020000}"/>
+    <hyperlink ref="C17" r:id="rId719" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000CE020000}"/>
+    <hyperlink ref="D17" r:id="rId720" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment" xr:uid="{00000000-0004-0000-0000-0000CF020000}"/>
+    <hyperlink ref="E17" r:id="rId721" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-0000D0020000}"/>
+    <hyperlink ref="C16" r:id="rId722" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000D1020000}"/>
+    <hyperlink ref="E16" r:id="rId723" tooltip="Ubisoft" display="https://en.wikipedia.org/wiki/Ubisoft" xr:uid="{00000000-0004-0000-0000-0000D2020000}"/>
+    <hyperlink ref="C21" r:id="rId724" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000D3020000}"/>
+    <hyperlink ref="D21" r:id="rId725" tooltip="Acclaim Cheltenham" display="https://en.wikipedia.org/wiki/Acclaim_Cheltenham" xr:uid="{00000000-0004-0000-0000-0000D4020000}"/>
+    <hyperlink ref="E21" r:id="rId726" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-0000D5020000}"/>
+    <hyperlink ref="C23" r:id="rId727" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000D6020000}"/>
+    <hyperlink ref="D23" r:id="rId728" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company" xr:uid="{00000000-0004-0000-0000-0000D7020000}"/>
+    <hyperlink ref="E23" r:id="rId729" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company" xr:uid="{00000000-0004-0000-0000-0000D8020000}"/>
+    <hyperlink ref="C36" r:id="rId730" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000D9020000}"/>
+    <hyperlink ref="E36" r:id="rId731" tooltip="Take-Two Interactive" display="https://en.wikipedia.org/wiki/Take-Two_Interactive" xr:uid="{00000000-0004-0000-0000-0000DA020000}"/>
+    <hyperlink ref="C39" r:id="rId732" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000DB020000}"/>
+    <hyperlink ref="D39" r:id="rId733" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco" xr:uid="{00000000-0004-0000-0000-0000DC020000}"/>
+    <hyperlink ref="E39" r:id="rId734" tooltip="Ubisoft" display="https://en.wikipedia.org/wiki/Ubisoft" xr:uid="{00000000-0004-0000-0000-0000DD020000}"/>
+    <hyperlink ref="C42" r:id="rId735" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000DE020000}"/>
+    <hyperlink ref="D42" r:id="rId736" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company" xr:uid="{00000000-0004-0000-0000-0000DF020000}"/>
+    <hyperlink ref="E42" r:id="rId737" tooltip="The 3DO Company" display="https://en.wikipedia.org/wiki/The_3DO_Company" xr:uid="{00000000-0004-0000-0000-0000E0020000}"/>
+    <hyperlink ref="C46" r:id="rId738" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000E1020000}"/>
+    <hyperlink ref="D46" r:id="rId739" tooltip="Saffire Corporation" display="https://en.wikipedia.org/wiki/Saffire_Corporation" xr:uid="{00000000-0004-0000-0000-0000E2020000}"/>
+    <hyperlink ref="E46" r:id="rId740" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-0000E3020000}"/>
+    <hyperlink ref="C50" r:id="rId741" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000E4020000}"/>
+    <hyperlink ref="E50" r:id="rId742" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software" xr:uid="{00000000-0004-0000-0000-0000E5020000}"/>
+    <hyperlink ref="C51" r:id="rId743" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000E6020000}"/>
+    <hyperlink ref="D51" r:id="rId744" tooltip="DMA Design" display="https://en.wikipedia.org/wiki/DMA_Design" xr:uid="{00000000-0004-0000-0000-0000E7020000}"/>
+    <hyperlink ref="E51" r:id="rId745" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-0000E8020000}"/>
+    <hyperlink ref="C8" r:id="rId746" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000E9020000}"/>
+    <hyperlink ref="D8" r:id="rId747" tooltip="Traveller's Tales" display="https://en.wikipedia.org/wiki/Traveller%27s_Tales" xr:uid="{00000000-0004-0000-0000-0000EA020000}"/>
+    <hyperlink ref="E8" r:id="rId748" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision" xr:uid="{00000000-0004-0000-0000-0000EB020000}"/>
+    <hyperlink ref="C62" r:id="rId749" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000EC020000}"/>
+    <hyperlink ref="D62" r:id="rId750" tooltip="Acclaim Cheltenham" display="https://en.wikipedia.org/wiki/Acclaim_Cheltenham" xr:uid="{00000000-0004-0000-0000-0000ED020000}"/>
+    <hyperlink ref="E62" r:id="rId751" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-0000EE020000}"/>
+    <hyperlink ref="C66" r:id="rId752" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000EF020000}"/>
+    <hyperlink ref="D66" r:id="rId753" tooltip="Software Creations (UK)" display="https://en.wikipedia.org/wiki/Software_Creations_(UK)" xr:uid="{00000000-0004-0000-0000-0000F0020000}"/>
+    <hyperlink ref="E66" r:id="rId754" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software" xr:uid="{00000000-0004-0000-0000-0000F1020000}"/>
+    <hyperlink ref="C72" r:id="rId755" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000F2020000}"/>
+    <hyperlink ref="D72" r:id="rId756" tooltip="Realtime Associates" display="https://en.wikipedia.org/wiki/Realtime_Associates" xr:uid="{00000000-0004-0000-0000-0000F3020000}"/>
+    <hyperlink ref="E72" r:id="rId757" tooltip="Kemco" display="https://en.wikipedia.org/wiki/Kemco" xr:uid="{00000000-0004-0000-0000-0000F4020000}"/>
+    <hyperlink ref="C80" r:id="rId758" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000F5020000}"/>
+    <hyperlink ref="D80" r:id="rId759" tooltip="Interplay Entertainment" display="https://en.wikipedia.org/wiki/Interplay_Entertainment" xr:uid="{00000000-0004-0000-0000-0000F6020000}"/>
+    <hyperlink ref="E80" r:id="rId760" tooltip="Interplay Entertainment" display="https://en.wikipedia.org/wiki/Interplay_Entertainment" xr:uid="{00000000-0004-0000-0000-0000F7020000}"/>
+    <hyperlink ref="C82" r:id="rId761" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000F8020000}"/>
+    <hyperlink ref="D82" r:id="rId762" tooltip="Westwood Studios" display="https://en.wikipedia.org/wiki/Westwood_Studios" xr:uid="{00000000-0004-0000-0000-0000F9020000}"/>
+    <hyperlink ref="E82" r:id="rId763" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000FA020000}"/>
+    <hyperlink ref="C83" r:id="rId764" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000FB020000}"/>
+    <hyperlink ref="D83" r:id="rId765" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)" xr:uid="{00000000-0004-0000-0000-0000FC020000}"/>
+    <hyperlink ref="C85" r:id="rId766" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000FD020000}"/>
+    <hyperlink ref="D85" r:id="rId767" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-0000FE020000}"/>
+    <hyperlink ref="E85" r:id="rId768" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000FF020000}"/>
+    <hyperlink ref="C86" r:id="rId769" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000000030000}"/>
+    <hyperlink ref="D86" r:id="rId770" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000001030000}"/>
+    <hyperlink ref="E86" r:id="rId771" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000002030000}"/>
+    <hyperlink ref="C89" r:id="rId772" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000003030000}"/>
+    <hyperlink ref="D89" r:id="rId773" tooltip="Saffire Corporation" display="https://en.wikipedia.org/wiki/Saffire_Corporation" xr:uid="{00000000-0004-0000-0000-000004030000}"/>
+    <hyperlink ref="E89" r:id="rId774" tooltip="EA Games" display="https://en.wikipedia.org/wiki/EA_Games" xr:uid="{00000000-0004-0000-0000-000005030000}"/>
+    <hyperlink ref="C98" r:id="rId775" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000006030000}"/>
+    <hyperlink ref="D98" r:id="rId776" tooltip="Looking Glass Studios" display="https://en.wikipedia.org/wiki/Looking_Glass_Studios" xr:uid="{00000000-0004-0000-0000-000007030000}"/>
+    <hyperlink ref="E98" r:id="rId777" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ" xr:uid="{00000000-0004-0000-0000-000008030000}"/>
+    <hyperlink ref="C103" r:id="rId778" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000009030000}"/>
+    <hyperlink ref="E103" r:id="rId779" tooltip="Ubi Soft Entertainment" display="https://en.wikipedia.org/wiki/Ubi_Soft_Entertainment" xr:uid="{00000000-0004-0000-0000-00000A030000}"/>
+    <hyperlink ref="C101" r:id="rId780" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00000B030000}"/>
+    <hyperlink ref="D101" r:id="rId781" tooltip="Eurocom" display="https://en.wikipedia.org/wiki/Eurocom" xr:uid="{00000000-0004-0000-0000-00000C030000}"/>
+    <hyperlink ref="E101" r:id="rId782" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision" xr:uid="{00000000-0004-0000-0000-00000D030000}"/>
+    <hyperlink ref="C112" r:id="rId783" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00000E030000}"/>
+    <hyperlink ref="D112" r:id="rId784" tooltip="Paradigm Entertainment" display="https://en.wikipedia.org/wiki/Paradigm_Entertainment" xr:uid="{00000000-0004-0000-0000-00000F030000}"/>
+    <hyperlink ref="E112" r:id="rId785" tooltip="Infogrames" display="https://en.wikipedia.org/wiki/Infogrames" xr:uid="{00000000-0004-0000-0000-000010030000}"/>
+    <hyperlink ref="C113" r:id="rId786" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000011030000}"/>
+    <hyperlink ref="D113" r:id="rId787" tooltip="Eurocom" display="https://en.wikipedia.org/wiki/Eurocom" xr:uid="{00000000-0004-0000-0000-000012030000}"/>
+    <hyperlink ref="E113" r:id="rId788" tooltip="GT Interactive Software" display="https://en.wikipedia.org/wiki/GT_Interactive_Software" xr:uid="{00000000-0004-0000-0000-000013030000}"/>
+    <hyperlink ref="C114" r:id="rId789" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000014030000}"/>
+    <hyperlink ref="D114" r:id="rId790" tooltip="Eurocom" display="https://en.wikipedia.org/wiki/Eurocom" xr:uid="{00000000-0004-0000-0000-000015030000}"/>
+    <hyperlink ref="E114" r:id="rId791" tooltip="GT Interactive Software" display="https://en.wikipedia.org/wiki/GT_Interactive_Software" xr:uid="{00000000-0004-0000-0000-000016030000}"/>
+    <hyperlink ref="C116" r:id="rId792" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000017030000}"/>
+    <hyperlink ref="D116" r:id="rId793" tooltip="VIS Entertainment" display="https://en.wikipedia.org/wiki/VIS_Entertainment" xr:uid="{00000000-0004-0000-0000-000018030000}"/>
+    <hyperlink ref="C117" r:id="rId794" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000019030000}"/>
+    <hyperlink ref="D117" r:id="rId795" tooltip="Acclaim Studios Salt Lake City" display="https://en.wikipedia.org/wiki/Acclaim_Studios_Salt_Lake_City" xr:uid="{00000000-0004-0000-0000-00001A030000}"/>
+    <hyperlink ref="E117" r:id="rId796" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-00001B030000}"/>
+    <hyperlink ref="C131" r:id="rId797" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00001C030000}"/>
+    <hyperlink ref="D131" r:id="rId798" tooltip="EA Canada" display="https://en.wikipedia.org/wiki/EA_Canada" xr:uid="{00000000-0004-0000-0000-00001D030000}"/>
+    <hyperlink ref="E131" r:id="rId799" tooltip="EA Sports" display="https://en.wikipedia.org/wiki/EA_Sports" xr:uid="{00000000-0004-0000-0000-00001E030000}"/>
+    <hyperlink ref="C136" r:id="rId800" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00001F030000}"/>
+    <hyperlink ref="D136" r:id="rId801" tooltip="Core Design" display="https://en.wikipedia.org/wiki/Core_Design" xr:uid="{00000000-0004-0000-0000-000020030000}"/>
+    <hyperlink ref="E136" r:id="rId802" tooltip="Crave Entertainment" display="https://en.wikipedia.org/wiki/Crave_Entertainment" xr:uid="{00000000-0004-0000-0000-000021030000}"/>
+    <hyperlink ref="C138" r:id="rId803" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000022030000}"/>
+    <hyperlink ref="D138" r:id="rId804" tooltip="Acclaim Studios Teesside" display="https://en.wikipedia.org/wiki/Acclaim_Studios_Teesside" xr:uid="{00000000-0004-0000-0000-000023030000}"/>
+    <hyperlink ref="E138" r:id="rId805" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-000024030000}"/>
+    <hyperlink ref="C149" r:id="rId806" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000025030000}"/>
+    <hyperlink ref="E149" r:id="rId807" tooltip="Crave Entertainment" display="https://en.wikipedia.org/wiki/Crave_Entertainment" xr:uid="{00000000-0004-0000-0000-000026030000}"/>
+    <hyperlink ref="C150" r:id="rId808" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000027030000}"/>
+    <hyperlink ref="D150" r:id="rId809" tooltip="Realtime Associates" display="https://en.wikipedia.org/wiki/Realtime_Associates" xr:uid="{00000000-0004-0000-0000-000028030000}"/>
+    <hyperlink ref="E150" r:id="rId810" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000029030000}"/>
+    <hyperlink ref="C151" r:id="rId811" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00002A030000}"/>
+    <hyperlink ref="D151" r:id="rId812" tooltip="Blitz Games" display="https://en.wikipedia.org/wiki/Blitz_Games" xr:uid="{00000000-0004-0000-0000-00002B030000}"/>
+    <hyperlink ref="C160" r:id="rId813" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00002C030000}"/>
+    <hyperlink ref="E160" r:id="rId814" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software" xr:uid="{00000000-0004-0000-0000-00002D030000}"/>
+    <hyperlink ref="C166" r:id="rId815" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00002E030000}"/>
+    <hyperlink ref="D166" r:id="rId816" tooltip="Stormfront Studios" display="https://en.wikipedia.org/wiki/Stormfront_Studios" xr:uid="{00000000-0004-0000-0000-00002F030000}"/>
+    <hyperlink ref="E166" r:id="rId817" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-000030030000}"/>
+    <hyperlink ref="C170" r:id="rId818" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000031030000}"/>
+    <hyperlink ref="D170" r:id="rId819" tooltip="Eurocom" display="https://en.wikipedia.org/wiki/Eurocom" xr:uid="{00000000-0004-0000-0000-000032030000}"/>
+    <hyperlink ref="E170" r:id="rId820" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000033030000}"/>
+    <hyperlink ref="C186" r:id="rId821" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000034030000}"/>
+    <hyperlink ref="D186" r:id="rId822" tooltip="Acclaim Studios Salt Lake City" display="https://en.wikipedia.org/wiki/Acclaim_Studios_Salt_Lake_City" xr:uid="{00000000-0004-0000-0000-000035030000}"/>
+    <hyperlink ref="E186" r:id="rId823" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-000036030000}"/>
+    <hyperlink ref="C204" r:id="rId824" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000037030000}"/>
+    <hyperlink ref="D204" r:id="rId825" tooltip="Rare (company)" display="https://en.wikipedia.org/wiki/Rare_(company)" xr:uid="{00000000-0004-0000-0000-000038030000}"/>
+    <hyperlink ref="E204" r:id="rId826" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000039030000}"/>
+    <hyperlink ref="C210" r:id="rId827" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00003A030000}"/>
+    <hyperlink ref="D210" r:id="rId828" tooltip="Black Ops Entertainment" display="https://en.wikipedia.org/wiki/Black_Ops_Entertainment" xr:uid="{00000000-0004-0000-0000-00003B030000}"/>
+    <hyperlink ref="E210" r:id="rId829" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-00003C030000}"/>
+    <hyperlink ref="C211" r:id="rId830" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00003D030000}"/>
+    <hyperlink ref="D211" r:id="rId831" tooltip="Left Field Productions" display="https://en.wikipedia.org/wiki/Left_Field_Productions" xr:uid="{00000000-0004-0000-0000-00003E030000}"/>
+    <hyperlink ref="E211" r:id="rId832" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-00003F030000}"/>
+    <hyperlink ref="C213" r:id="rId833" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000040030000}"/>
+    <hyperlink ref="D213" r:id="rId834" tooltip="High Voltage Software" display="https://en.wikipedia.org/wiki/High_Voltage_Software" xr:uid="{00000000-0004-0000-0000-000041030000}"/>
+    <hyperlink ref="E213" r:id="rId835" tooltip="Lego Media" display="https://en.wikipedia.org/wiki/Lego_Media" xr:uid="{00000000-0004-0000-0000-000042030000}"/>
+    <hyperlink ref="C217" r:id="rId836" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000043030000}"/>
+    <hyperlink ref="D217" r:id="rId837" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000044030000}"/>
+    <hyperlink ref="E217" r:id="rId838" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000045030000}"/>
+    <hyperlink ref="C218" r:id="rId839" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000046030000}"/>
+    <hyperlink ref="D218" r:id="rId840" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-000047030000}"/>
+    <hyperlink ref="E218" r:id="rId841" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-000048030000}"/>
+    <hyperlink ref="C222" r:id="rId842" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000049030000}"/>
+    <hyperlink ref="D222" r:id="rId843" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-00004A030000}"/>
+    <hyperlink ref="E222" r:id="rId844" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-00004B030000}"/>
+    <hyperlink ref="C240" r:id="rId845" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00004C030000}"/>
+    <hyperlink ref="D240" r:id="rId846" tooltip="Silicon Dreams Studio" display="https://en.wikipedia.org/wiki/Silicon_Dreams_Studio" xr:uid="{00000000-0004-0000-0000-00004D030000}"/>
+    <hyperlink ref="E240" r:id="rId847" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ" xr:uid="{00000000-0004-0000-0000-00004E030000}"/>
+    <hyperlink ref="E239" r:id="rId848" tooltip="SouthPeak Games" display="https://en.wikipedia.org/wiki/SouthPeak_Games" xr:uid="{00000000-0004-0000-0000-00004F030000}"/>
+    <hyperlink ref="C243" r:id="rId849" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000050030000}"/>
+    <hyperlink ref="D243" r:id="rId850" tooltip="Codemasters" display="https://en.wikipedia.org/wiki/Codemasters" xr:uid="{00000000-0004-0000-0000-000051030000}"/>
+    <hyperlink ref="E243" r:id="rId851" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000052030000}"/>
+    <hyperlink ref="C246" r:id="rId852" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000053030000}"/>
+    <hyperlink ref="E246" r:id="rId853" tooltip="Crave Entertainment" display="https://en.wikipedia.org/wiki/Crave_Entertainment" xr:uid="{00000000-0004-0000-0000-000054030000}"/>
+    <hyperlink ref="C248" r:id="rId854" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000055030000}"/>
+    <hyperlink ref="D248" r:id="rId855" tooltip="Infogrames Multimedia" display="https://en.wikipedia.org/wiki/Infogrames_Multimedia" xr:uid="{00000000-0004-0000-0000-000056030000}"/>
+    <hyperlink ref="C249" r:id="rId856" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000057030000}"/>
+    <hyperlink ref="D249" r:id="rId857" tooltip="Ubisoft" display="https://en.wikipedia.org/wiki/Ubisoft" xr:uid="{00000000-0004-0000-0000-000058030000}"/>
+    <hyperlink ref="E249" r:id="rId858" tooltip="Ubisoft" display="https://en.wikipedia.org/wiki/Ubisoft" xr:uid="{00000000-0004-0000-0000-000059030000}"/>
+    <hyperlink ref="C252" r:id="rId859" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00005A030000}"/>
+    <hyperlink ref="D252" r:id="rId860" tooltip="Edge of Reality" display="https://en.wikipedia.org/wiki/Edge_of_Reality" xr:uid="{00000000-0004-0000-0000-00005B030000}"/>
+    <hyperlink ref="E252" r:id="rId861" tooltip="Rockstar Games" display="https://en.wikipedia.org/wiki/Rockstar_Games" xr:uid="{00000000-0004-0000-0000-00005C030000}"/>
+    <hyperlink ref="C254" r:id="rId862" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00005D030000}"/>
+    <hyperlink ref="D254" r:id="rId863" tooltip="Eurocom" display="https://en.wikipedia.org/wiki/Eurocom" xr:uid="{00000000-0004-0000-0000-00005E030000}"/>
+    <hyperlink ref="E254" r:id="rId864" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-00005F030000}"/>
+    <hyperlink ref="C255" r:id="rId865" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000060030000}"/>
+    <hyperlink ref="D255" r:id="rId866" tooltip="Avalanche Software" display="https://en.wikipedia.org/wiki/Avalanche_Software" xr:uid="{00000000-0004-0000-0000-000061030000}"/>
+    <hyperlink ref="E255" r:id="rId867" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000062030000}"/>
+    <hyperlink ref="C256" r:id="rId868" tooltip="1996 in video gaming" display="https://en.wikipedia.org/wiki/1996_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000063030000}"/>
+    <hyperlink ref="D256" r:id="rId869" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000064030000}"/>
+    <hyperlink ref="E256" r:id="rId870" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000065030000}"/>
+    <hyperlink ref="C264" r:id="rId871" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000066030000}"/>
+    <hyperlink ref="D264" r:id="rId872" tooltip="Stormfront Studios" display="https://en.wikipedia.org/wiki/Stormfront_Studios" xr:uid="{00000000-0004-0000-0000-000067030000}"/>
+    <hyperlink ref="E264" r:id="rId873" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-000068030000}"/>
+    <hyperlink ref="C266" r:id="rId874" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000069030000}"/>
+    <hyperlink ref="D266" r:id="rId875" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-00006A030000}"/>
+    <hyperlink ref="E266" r:id="rId876" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-00006B030000}"/>
+    <hyperlink ref="C267" r:id="rId877" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00006C030000}"/>
+    <hyperlink ref="D267" r:id="rId878" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-00006D030000}"/>
+    <hyperlink ref="E267" r:id="rId879" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-00006E030000}"/>
+    <hyperlink ref="C272" r:id="rId880" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00006F030000}"/>
+    <hyperlink ref="D272" r:id="rId881" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment" xr:uid="{00000000-0004-0000-0000-000070030000}"/>
+    <hyperlink ref="E272" r:id="rId882" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-000071030000}"/>
+    <hyperlink ref="C271" r:id="rId883" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000072030000}"/>
+    <hyperlink ref="D271" r:id="rId884" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment" xr:uid="{00000000-0004-0000-0000-000073030000}"/>
+    <hyperlink ref="E271" r:id="rId885" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-000074030000}"/>
+    <hyperlink ref="C274" r:id="rId886" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000075030000}"/>
+    <hyperlink ref="D274" r:id="rId887" tooltip="NuFX" display="https://en.wikipedia.org/wiki/NuFX" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
+    <hyperlink ref="E274" r:id="rId888" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
+    <hyperlink ref="C273" r:id="rId889" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000078030000}"/>
+    <hyperlink ref="D273" r:id="rId890" tooltip="NuFX" display="https://en.wikipedia.org/wiki/NuFX" xr:uid="{00000000-0004-0000-0000-000079030000}"/>
+    <hyperlink ref="E273" r:id="rId891" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
+    <hyperlink ref="C413" r:id="rId892" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
+    <hyperlink ref="E413" r:id="rId893" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
+    <hyperlink ref="C287" r:id="rId894" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
+    <hyperlink ref="D287" r:id="rId895" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment" xr:uid="{00000000-0004-0000-0000-00007E030000}"/>
+    <hyperlink ref="E287" r:id="rId896" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-00007F030000}"/>
+    <hyperlink ref="C288" r:id="rId897" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000080030000}"/>
+    <hyperlink ref="D288" r:id="rId898" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment" xr:uid="{00000000-0004-0000-0000-000081030000}"/>
+    <hyperlink ref="E288" r:id="rId899" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-000082030000}"/>
+    <hyperlink ref="C286" r:id="rId900" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000083030000}"/>
+    <hyperlink ref="D286" r:id="rId901" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment" xr:uid="{00000000-0004-0000-0000-000084030000}"/>
+    <hyperlink ref="E286" r:id="rId902" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-000085030000}"/>
+    <hyperlink ref="C289" r:id="rId903" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000086030000}"/>
+    <hyperlink ref="E289" r:id="rId904" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-000087030000}"/>
+    <hyperlink ref="C290" r:id="rId905" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000088030000}"/>
+    <hyperlink ref="D290" r:id="rId906" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-000089030000}"/>
+    <hyperlink ref="E290" r:id="rId907" tooltip="Konami" display="https://en.wikipedia.org/wiki/Konami" xr:uid="{00000000-0004-0000-0000-00008A030000}"/>
+    <hyperlink ref="C291" r:id="rId908" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00008B030000}"/>
+    <hyperlink ref="D291" r:id="rId909" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment" xr:uid="{00000000-0004-0000-0000-00008C030000}"/>
+    <hyperlink ref="E291" r:id="rId910" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-00008D030000}"/>
+    <hyperlink ref="C292" r:id="rId911" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00008E030000}"/>
+    <hyperlink ref="D292" r:id="rId912" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment" xr:uid="{00000000-0004-0000-0000-00008F030000}"/>
+    <hyperlink ref="E292" r:id="rId913" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
+    <hyperlink ref="C296" r:id="rId914" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
+    <hyperlink ref="D296" r:id="rId915" tooltip="Pacific Coast Power &amp; Light" display="https://en.wikipedia.org/wiki/Pacific_Coast_Power_%26_Light" xr:uid="{00000000-0004-0000-0000-000092030000}"/>
+    <hyperlink ref="E296" r:id="rId916" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ" xr:uid="{00000000-0004-0000-0000-000093030000}"/>
+    <hyperlink ref="C299" r:id="rId917" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000094030000}"/>
+    <hyperlink ref="D299" r:id="rId918" tooltip="Avalanche Software" display="https://en.wikipedia.org/wiki/Avalanche_Software" xr:uid="{00000000-0004-0000-0000-000095030000}"/>
+    <hyperlink ref="E299" r:id="rId919" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000096030000}"/>
+    <hyperlink ref="C306" r:id="rId920" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000097030000}"/>
+    <hyperlink ref="D306" r:id="rId921" tooltip="High Voltage Software" display="https://en.wikipedia.org/wiki/High_Voltage_Software" xr:uid="{00000000-0004-0000-0000-000098030000}"/>
+    <hyperlink ref="E306" r:id="rId922" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000099030000}"/>
+    <hyperlink ref="C311" r:id="rId923" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00009A030000}"/>
+    <hyperlink ref="D311" r:id="rId924" tooltip="Gremlin Interactive" display="https://en.wikipedia.org/wiki/Gremlin_Interactive" xr:uid="{00000000-0004-0000-0000-00009B030000}"/>
+    <hyperlink ref="E311" r:id="rId925" tooltip="Infogrames Entertainment, SA" display="https://en.wikipedia.org/wiki/Infogrames_Entertainment,_SA" xr:uid="{00000000-0004-0000-0000-00009C030000}"/>
+    <hyperlink ref="C319" r:id="rId926" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00009D030000}"/>
+    <hyperlink ref="D319" r:id="rId927" tooltip="Nintendo Software Technology" display="https://en.wikipedia.org/wiki/Nintendo_Software_Technology" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
+    <hyperlink ref="E319" r:id="rId928" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
+    <hyperlink ref="C325" r:id="rId929" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000A0030000}"/>
+    <hyperlink ref="D325" r:id="rId930" location="Defunct" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ - Defunct" xr:uid="{00000000-0004-0000-0000-0000A1030000}"/>
+    <hyperlink ref="E325" r:id="rId931" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
+    <hyperlink ref="C332" r:id="rId932" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000A3030000}"/>
+    <hyperlink ref="D332" r:id="rId933" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-0000A4030000}"/>
+    <hyperlink ref="E332" r:id="rId934" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-0000A5030000}"/>
+    <hyperlink ref="C333" r:id="rId935" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000A6030000}"/>
+    <hyperlink ref="E333" r:id="rId936" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision" xr:uid="{00000000-0004-0000-0000-0000A7030000}"/>
+    <hyperlink ref="C337" r:id="rId937" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000A8030000}"/>
+    <hyperlink ref="D337" r:id="rId938" tooltip="Saffire Corporation" display="https://en.wikipedia.org/wiki/Saffire_Corporation" xr:uid="{00000000-0004-0000-0000-0000A9030000}"/>
+    <hyperlink ref="E337" r:id="rId939" tooltip="Red Storm Entertainment" display="https://en.wikipedia.org/wiki/Red_Storm_Entertainment" xr:uid="{00000000-0004-0000-0000-0000AA030000}"/>
+    <hyperlink ref="C341" r:id="rId940" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000AB030000}"/>
+    <hyperlink ref="D341" r:id="rId941" tooltip="Avalanche Software" display="https://en.wikipedia.org/wiki/Avalanche_Software" xr:uid="{00000000-0004-0000-0000-0000AC030000}"/>
+    <hyperlink ref="E341" r:id="rId942" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-0000AD030000}"/>
+    <hyperlink ref="C342" r:id="rId943" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000AE030000}"/>
+    <hyperlink ref="D342" r:id="rId944" tooltip="Saffire Corporation" display="https://en.wikipedia.org/wiki/Saffire_Corporation" xr:uid="{00000000-0004-0000-0000-0000AF030000}"/>
+    <hyperlink ref="E342" r:id="rId945" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-0000B0030000}"/>
+    <hyperlink ref="C343" r:id="rId946" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000B1030000}"/>
+    <hyperlink ref="E343" r:id="rId947" tooltip="Mindscape" display="https://en.wikipedia.org/wiki/Mindscape" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
+    <hyperlink ref="C344" r:id="rId948" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
+    <hyperlink ref="D344" r:id="rId949" tooltip="Ubi Soft" display="https://en.wikipedia.org/wiki/Ubi_Soft" xr:uid="{00000000-0004-0000-0000-0000B4030000}"/>
+    <hyperlink ref="E344" r:id="rId950" tooltip="Ubi Soft Entertainment" display="https://en.wikipedia.org/wiki/Ubi_Soft_Entertainment" xr:uid="{00000000-0004-0000-0000-0000B5030000}"/>
+    <hyperlink ref="C349" r:id="rId951" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000B6030000}"/>
+    <hyperlink ref="D349" r:id="rId952" tooltip="Acclaim Cheltenham" display="https://en.wikipedia.org/wiki/Acclaim_Cheltenham" xr:uid="{00000000-0004-0000-0000-0000B7030000}"/>
+    <hyperlink ref="E349" r:id="rId953" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-0000B8030000}"/>
+    <hyperlink ref="C346" r:id="rId954" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000B9030000}"/>
+    <hyperlink ref="D346" r:id="rId955" tooltip="Point of View, Inc." display="https://en.wikipedia.org/wiki/Point_of_View,_Inc." xr:uid="{00000000-0004-0000-0000-0000BA030000}"/>
+    <hyperlink ref="E346" r:id="rId956" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-0000BB030000}"/>
+    <hyperlink ref="C350" r:id="rId957" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
+    <hyperlink ref="D350" r:id="rId958" tooltip="Nintendo Software Technology" display="https://en.wikipedia.org/wiki/Nintendo_Software_Technology" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
+    <hyperlink ref="E350" r:id="rId959" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
+    <hyperlink ref="C351" r:id="rId960" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
+    <hyperlink ref="D351" r:id="rId961" tooltip="Pacific Coast Power &amp; Light" display="https://en.wikipedia.org/wiki/Pacific_Coast_Power_%26_Light" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
+    <hyperlink ref="E351" r:id="rId962" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
+    <hyperlink ref="C352" r:id="rId963" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
+    <hyperlink ref="D352" r:id="rId964" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
+    <hyperlink ref="E352" r:id="rId965" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
+    <hyperlink ref="C354" r:id="rId966" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
+    <hyperlink ref="E354" r:id="rId967" tooltip="Crave Entertainment" display="https://en.wikipedia.org/wiki/Crave_Entertainment" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
+    <hyperlink ref="C355" r:id="rId968" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
+    <hyperlink ref="D355" r:id="rId969" tooltip="Sucker Punch Productions" display="https://en.wikipedia.org/wiki/Sucker_Punch_Productions" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
+    <hyperlink ref="E355" r:id="rId970" tooltip="Ubisoft" display="https://en.wikipedia.org/wiki/Ubisoft" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
+    <hyperlink ref="C358" r:id="rId971" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
+    <hyperlink ref="D358" r:id="rId972" tooltip="Avalanche Software" display="https://en.wikipedia.org/wiki/Avalanche_Software" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
+    <hyperlink ref="E358" r:id="rId973" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ" xr:uid="{00000000-0004-0000-0000-0000CC030000}"/>
+    <hyperlink ref="C359" r:id="rId974" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000CD030000}"/>
+    <hyperlink ref="D359" r:id="rId975" tooltip="Realtime Associates" display="https://en.wikipedia.org/wiki/Realtime_Associates" xr:uid="{00000000-0004-0000-0000-0000CE030000}"/>
+    <hyperlink ref="E359" r:id="rId976" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ" xr:uid="{00000000-0004-0000-0000-0000CF030000}"/>
+    <hyperlink ref="C361" r:id="rId977" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
+    <hyperlink ref="D361" r:id="rId978" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
+    <hyperlink ref="E361" r:id="rId979" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
+    <hyperlink ref="C362" r:id="rId980" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
+    <hyperlink ref="E362" r:id="rId981" tooltip="Ubi Soft Entertainment" display="https://en.wikipedia.org/wiki/Ubi_Soft_Entertainment" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
+    <hyperlink ref="C365" r:id="rId982" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
+    <hyperlink ref="D365" r:id="rId983" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
+    <hyperlink ref="E365" r:id="rId984" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
+    <hyperlink ref="C364" r:id="rId985" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
+    <hyperlink ref="D364" r:id="rId986" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
+    <hyperlink ref="E364" r:id="rId987" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-0000DA030000}"/>
+    <hyperlink ref="C366" r:id="rId988" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000DB030000}"/>
+    <hyperlink ref="D366" r:id="rId989" tooltip="Terraglyph Interactive Studios" display="https://en.wikipedia.org/wiki/Terraglyph_Interactive_Studios" xr:uid="{00000000-0004-0000-0000-0000DC030000}"/>
+    <hyperlink ref="E366" r:id="rId990" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ" xr:uid="{00000000-0004-0000-0000-0000DD030000}"/>
+    <hyperlink ref="C368" r:id="rId991" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000DE030000}"/>
+    <hyperlink ref="D368" r:id="rId992" tooltip="Acclaim Studios Teesside" display="https://en.wikipedia.org/wiki/Acclaim_Studios_Teesside" xr:uid="{00000000-0004-0000-0000-0000DF030000}"/>
+    <hyperlink ref="E368" r:id="rId993" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-0000E0030000}"/>
+    <hyperlink ref="C377" r:id="rId994" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000E1030000}"/>
+    <hyperlink ref="D377" r:id="rId995" tooltip="Iguana Entertainment" display="https://en.wikipedia.org/wiki/Iguana_Entertainment" xr:uid="{00000000-0004-0000-0000-0000E2030000}"/>
+    <hyperlink ref="E377" r:id="rId996" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-0000E3030000}"/>
+    <hyperlink ref="C378" r:id="rId997" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000E4030000}"/>
+    <hyperlink ref="D378" r:id="rId998" tooltip="Tantalus Media" display="https://en.wikipedia.org/wiki/Tantalus_Media" xr:uid="{00000000-0004-0000-0000-0000E5030000}"/>
+    <hyperlink ref="E378" r:id="rId999" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-0000E6030000}"/>
+    <hyperlink ref="C379" r:id="rId1000" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000E7030000}"/>
+    <hyperlink ref="D379" r:id="rId1001" tooltip="Acclaim Studios Austin" display="https://en.wikipedia.org/wiki/Acclaim_Studios_Austin" xr:uid="{00000000-0004-0000-0000-0000E8030000}"/>
+    <hyperlink ref="E379" r:id="rId1002" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-0000E9030000}"/>
+    <hyperlink ref="C382" r:id="rId1003" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000EA030000}"/>
+    <hyperlink ref="D382" r:id="rId1004" tooltip="DMA Design" display="https://en.wikipedia.org/wiki/DMA_Design" xr:uid="{00000000-0004-0000-0000-0000EB030000}"/>
+    <hyperlink ref="E382" r:id="rId1005" tooltip="Take-Two Interactive" display="https://en.wikipedia.org/wiki/Take-Two_Interactive" xr:uid="{00000000-0004-0000-0000-0000EC030000}"/>
+    <hyperlink ref="C388" r:id="rId1006" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000ED030000}"/>
+    <hyperlink ref="D388" r:id="rId1007" tooltip="Factor 5" display="https://en.wikipedia.org/wiki/Factor_5" xr:uid="{00000000-0004-0000-0000-0000EE030000}"/>
+    <hyperlink ref="E388" r:id="rId1008" tooltip="LucasArts" display="https://en.wikipedia.org/wiki/LucasArts" xr:uid="{00000000-0004-0000-0000-0000EF030000}"/>
+    <hyperlink ref="C394" r:id="rId1009" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000F0030000}"/>
+    <hyperlink ref="D394" r:id="rId1010" tooltip="Infogrames Entertainment, SA" display="https://en.wikipedia.org/wiki/Infogrames_Entertainment,_SA" xr:uid="{00000000-0004-0000-0000-0000F1030000}"/>
+    <hyperlink ref="E394" r:id="rId1011" tooltip="Infogrames Entertainment, SA" display="https://en.wikipedia.org/wiki/Infogrames_Entertainment,_SA" xr:uid="{00000000-0004-0000-0000-0000F2030000}"/>
+    <hyperlink ref="C403" r:id="rId1012" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000F3030000}"/>
+    <hyperlink ref="E403" r:id="rId1013" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-0000F4030000}"/>
+    <hyperlink ref="C404" r:id="rId1014" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000F5030000}"/>
+    <hyperlink ref="D404" r:id="rId1015" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software" xr:uid="{00000000-0004-0000-0000-0000F6030000}"/>
+    <hyperlink ref="E404" r:id="rId1016" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software" xr:uid="{00000000-0004-0000-0000-0000F7030000}"/>
+    <hyperlink ref="C410" r:id="rId1017" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000F8030000}"/>
+    <hyperlink ref="E410" r:id="rId1018" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-0000F9030000}"/>
+    <hyperlink ref="C415" r:id="rId1019" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000FA030000}"/>
+    <hyperlink ref="C416" r:id="rId1020" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000FB030000}"/>
+    <hyperlink ref="D416" r:id="rId1021" tooltip="VIS Entertainment" display="https://en.wikipedia.org/wiki/VIS_Entertainment" xr:uid="{00000000-0004-0000-0000-0000FC030000}"/>
+    <hyperlink ref="C417" r:id="rId1022" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-0000FD030000}"/>
+    <hyperlink ref="D417" r:id="rId1023" tooltip="Ubisoft" display="https://en.wikipedia.org/wiki/Ubisoft" xr:uid="{00000000-0004-0000-0000-0000FE030000}"/>
+    <hyperlink ref="E417" r:id="rId1024" tooltip="Ubisoft" display="https://en.wikipedia.org/wiki/Ubisoft" xr:uid="{00000000-0004-0000-0000-0000FF030000}"/>
+    <hyperlink ref="C418" r:id="rId1025" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000000040000}"/>
+    <hyperlink ref="D418" r:id="rId1026" tooltip="Edge of Reality" display="https://en.wikipedia.org/wiki/Edge_of_Reality" xr:uid="{00000000-0004-0000-0000-000001040000}"/>
+    <hyperlink ref="E418" r:id="rId1027" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision" xr:uid="{00000000-0004-0000-0000-000002040000}"/>
+    <hyperlink ref="C419" r:id="rId1028" tooltip="2001 in video gaming" display="https://en.wikipedia.org/wiki/2001_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000003040000}"/>
+    <hyperlink ref="D419" r:id="rId1029" tooltip="Edge of Reality" display="https://en.wikipedia.org/wiki/Edge_of_Reality" xr:uid="{00000000-0004-0000-0000-000004040000}"/>
+    <hyperlink ref="E419" r:id="rId1030" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision" xr:uid="{00000000-0004-0000-0000-000005040000}"/>
+    <hyperlink ref="C426" r:id="rId1031" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000006040000}"/>
+    <hyperlink ref="D426" r:id="rId1032" tooltip="Traveller's Tales" display="https://en.wikipedia.org/wiki/Traveller%27s_Tales" xr:uid="{00000000-0004-0000-0000-000007040000}"/>
+    <hyperlink ref="E426" r:id="rId1033" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision" xr:uid="{00000000-0004-0000-0000-000008040000}"/>
+    <hyperlink ref="C431" r:id="rId1034" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000009040000}"/>
+    <hyperlink ref="D431" r:id="rId1035" tooltip="Acclaim Studios Austin" display="https://en.wikipedia.org/wiki/Acclaim_Studios_Austin" xr:uid="{00000000-0004-0000-0000-00000A040000}"/>
+    <hyperlink ref="E431" r:id="rId1036" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-00000B040000}"/>
+    <hyperlink ref="C434" r:id="rId1037" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00000C040000}"/>
+    <hyperlink ref="D434" r:id="rId1038" tooltip="Acclaim Studios Austin" display="https://en.wikipedia.org/wiki/Acclaim_Studios_Austin" xr:uid="{00000000-0004-0000-0000-00000D040000}"/>
+    <hyperlink ref="E434" r:id="rId1039" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-00000E040000}"/>
+    <hyperlink ref="C437" r:id="rId1040" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00000F040000}"/>
+    <hyperlink ref="D437" r:id="rId1041" tooltip="Luxoflux" display="https://en.wikipedia.org/wiki/Luxoflux" xr:uid="{00000000-0004-0000-0000-000010040000}"/>
+    <hyperlink ref="E437" r:id="rId1042" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision" xr:uid="{00000000-0004-0000-0000-000011040000}"/>
+    <hyperlink ref="C438" r:id="rId1043" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000012040000}"/>
+    <hyperlink ref="D438" r:id="rId1044" tooltip="Luxoflux" display="https://en.wikipedia.org/wiki/Luxoflux" xr:uid="{00000000-0004-0000-0000-000013040000}"/>
+    <hyperlink ref="E438" r:id="rId1045" tooltip="Activision" display="https://en.wikipedia.org/wiki/Activision" xr:uid="{00000000-0004-0000-0000-000014040000}"/>
+    <hyperlink ref="C440" r:id="rId1046" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000015040000}"/>
+    <hyperlink ref="D440" r:id="rId1047" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software" xr:uid="{00000000-0004-0000-0000-000016040000}"/>
+    <hyperlink ref="E440" r:id="rId1048" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software" xr:uid="{00000000-0004-0000-0000-000017040000}"/>
+    <hyperlink ref="C441" r:id="rId1049" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000018040000}"/>
+    <hyperlink ref="D441" r:id="rId1050" tooltip="Celeris" display="https://en.wikipedia.org/wiki/Celeris" xr:uid="{00000000-0004-0000-0000-000019040000}"/>
+    <hyperlink ref="E441" r:id="rId1051" tooltip="Crave Entertainment" display="https://en.wikipedia.org/wiki/Crave_Entertainment" xr:uid="{00000000-0004-0000-0000-00001A040000}"/>
+    <hyperlink ref="C445" r:id="rId1052" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00001B040000}"/>
+    <hyperlink ref="D445" r:id="rId1053" tooltip="Technology and Entertainment Software" display="https://en.wikipedia.org/wiki/Technology_and_Entertainment_Software" xr:uid="{00000000-0004-0000-0000-00001C040000}"/>
+    <hyperlink ref="E445" r:id="rId1054" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-00001D040000}"/>
+    <hyperlink ref="C446" r:id="rId1055" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00001E040000}"/>
+    <hyperlink ref="D446" r:id="rId1056" tooltip="Eurocom" display="https://en.wikipedia.org/wiki/Eurocom" xr:uid="{00000000-0004-0000-0000-00001F040000}"/>
+    <hyperlink ref="E446" r:id="rId1057" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000020040000}"/>
+    <hyperlink ref="C449" r:id="rId1058" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000021040000}"/>
+    <hyperlink ref="D449" r:id="rId1059" tooltip="Software Creations (UK)" display="https://en.wikipedia.org/wiki/Software_Creations_(UK)" xr:uid="{00000000-0004-0000-0000-000022040000}"/>
+    <hyperlink ref="E449" r:id="rId1060" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000023040000}"/>
+    <hyperlink ref="C451" r:id="rId1061" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000024040000}"/>
+    <hyperlink ref="E451" r:id="rId1062" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-000025040000}"/>
+    <hyperlink ref="C453" r:id="rId1063" tooltip="1997 in video gaming" display="https://en.wikipedia.org/wiki/1997_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000026040000}"/>
+    <hyperlink ref="D453" r:id="rId1064" tooltip="Syn Sophia" display="https://en.wikipedia.org/wiki/Syn_Sophia" xr:uid="{00000000-0004-0000-0000-000027040000}"/>
+    <hyperlink ref="E453" r:id="rId1065" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ" xr:uid="{00000000-0004-0000-0000-000028040000}"/>
+    <hyperlink ref="C454" r:id="rId1066" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000029040000}"/>
+    <hyperlink ref="D454" r:id="rId1067" tooltip="Syn Sophia" display="https://en.wikipedia.org/wiki/Syn_Sophia" xr:uid="{00000000-0004-0000-0000-00002A040000}"/>
+    <hyperlink ref="E454" r:id="rId1068" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ" xr:uid="{00000000-0004-0000-0000-00002B040000}"/>
+    <hyperlink ref="C459" r:id="rId1069" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00002C040000}"/>
+    <hyperlink ref="D459" r:id="rId1070" tooltip="SCE Studio Liverpool" display="https://en.wikipedia.org/wiki/SCE_Studio_Liverpool" xr:uid="{00000000-0004-0000-0000-00002D040000}"/>
+    <hyperlink ref="E459" r:id="rId1071" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-00002E040000}"/>
+    <hyperlink ref="C461" r:id="rId1072" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00002F040000}"/>
+    <hyperlink ref="D461" r:id="rId1073" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-000030040000}"/>
+    <hyperlink ref="E461" r:id="rId1074" tooltip="Electronic Arts" display="https://en.wikipedia.org/wiki/Electronic_Arts" xr:uid="{00000000-0004-0000-0000-000031040000}"/>
+    <hyperlink ref="C462" r:id="rId1075" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000032040000}"/>
+    <hyperlink ref="D462" r:id="rId1076" tooltip="Boss Game Studios" display="https://en.wikipedia.org/wiki/Boss_Game_Studios" xr:uid="{00000000-0004-0000-0000-000033040000}"/>
+    <hyperlink ref="E462" r:id="rId1077" tooltip="Midway Games" display="https://en.wikipedia.org/wiki/Midway_Games" xr:uid="{00000000-0004-0000-0000-000034040000}"/>
+    <hyperlink ref="C463" r:id="rId1078" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000035040000}"/>
+    <hyperlink ref="D463" r:id="rId1079" tooltip="Infogrames Entertainment, SA" display="https://en.wikipedia.org/wiki/Infogrames_Entertainment,_SA" xr:uid="{00000000-0004-0000-0000-000036040000}"/>
+    <hyperlink ref="E463" r:id="rId1080" tooltip="Infogrames Entertainment, SA" display="https://en.wikipedia.org/wiki/Infogrames_Entertainment,_SA" xr:uid="{00000000-0004-0000-0000-000037040000}"/>
+    <hyperlink ref="C464" r:id="rId1081" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000038040000}"/>
+    <hyperlink ref="E464" r:id="rId1082" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-000039040000}"/>
+    <hyperlink ref="C465" r:id="rId1083" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00003A040000}"/>
+    <hyperlink ref="D465" r:id="rId1084" tooltip="Syn Sophia" display="https://en.wikipedia.org/wiki/Syn_Sophia" xr:uid="{00000000-0004-0000-0000-00003B040000}"/>
+    <hyperlink ref="E465" r:id="rId1085" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ" xr:uid="{00000000-0004-0000-0000-00003C040000}"/>
+    <hyperlink ref="C466" r:id="rId1086" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00003D040000}"/>
+    <hyperlink ref="E466" r:id="rId1087" tooltip="Acclaim Entertainment" display="https://en.wikipedia.org/wiki/Acclaim_Entertainment" xr:uid="{00000000-0004-0000-0000-00003E040000}"/>
+    <hyperlink ref="C468" r:id="rId1088" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00003F040000}"/>
+    <hyperlink ref="D468" r:id="rId1089" tooltip="Saffire Corporation" display="https://en.wikipedia.org/wiki/Saffire_Corporation" xr:uid="{00000000-0004-0000-0000-000040040000}"/>
+    <hyperlink ref="E468" r:id="rId1090" tooltip="Titus Software" display="https://en.wikipedia.org/wiki/Titus_Software" xr:uid="{00000000-0004-0000-0000-000041040000}"/>
+    <hyperlink ref="C227" r:id="rId1091" tooltip="1998 in video gaming" display="https://en.wikipedia.org/wiki/1998_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000042040000}"/>
+    <hyperlink ref="D227" r:id="rId1092" tooltip="Angel Studios" display="https://en.wikipedia.org/wiki/Angel_Studios" xr:uid="{00000000-0004-0000-0000-000043040000}"/>
+    <hyperlink ref="E227" r:id="rId1093" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000044040000}"/>
+    <hyperlink ref="F227" r:id="rId1094" tooltip="Australia" display="https://en.wikipedia.org/wiki/Australia" xr:uid="{00000000-0004-0000-0000-000045040000}"/>
+    <hyperlink ref="C393" r:id="rId1095" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000046040000}"/>
+    <hyperlink ref="D393" r:id="rId1096" location="Defunct" tooltip="THQ" display="https://en.wikipedia.org/wiki/THQ - Defunct" xr:uid="{00000000-0004-0000-0000-000047040000}"/>
+    <hyperlink ref="E393" r:id="rId1097" tooltip="Nintendo" display="https://en.wikipedia.org/wiki/Nintendo" xr:uid="{00000000-0004-0000-0000-000048040000}"/>
+    <hyperlink ref="F393" r:id="rId1098" tooltip="Australia" display="https://en.wikipedia.org/wiki/Australia" xr:uid="{00000000-0004-0000-0000-000049040000}"/>
+    <hyperlink ref="C128" r:id="rId1099" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00004A040000}"/>
+    <hyperlink ref="D128" r:id="rId1100" tooltip="Paradigm Entertainment" display="https://en.wikipedia.org/wiki/Paradigm_Entertainment" xr:uid="{00000000-0004-0000-0000-00004B040000}"/>
+    <hyperlink ref="E128" r:id="rId1101" tooltip="Video System" display="https://en.wikipedia.org/wiki/Video_System" xr:uid="{00000000-0004-0000-0000-00004C040000}"/>
+    <hyperlink ref="C326" r:id="rId1102" tooltip="1999 in video gaming" display="https://en.wikipedia.org/wiki/1999_in_video_gaming" xr:uid="{00000000-0004-0000-0000-00004D040000}"/>
+    <hyperlink ref="D326" r:id="rId1103" tooltip="Gremlin Interactive" display="https://en.wikipedia.org/wiki/Gremlin_Interactive" xr:uid="{00000000-0004-0000-0000-00004E040000}"/>
+    <hyperlink ref="E326" r:id="rId1104" tooltip="Gremlin Interactive" display="https://en.wikipedia.org/wiki/Gremlin_Interactive" xr:uid="{00000000-0004-0000-0000-00004F040000}"/>
+    <hyperlink ref="C407" r:id="rId1105" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000050040000}"/>
+    <hyperlink ref="D407" r:id="rId1106" tooltip="Warthog Games" display="https://en.wikipedia.org/wiki/Warthog_Games" xr:uid="{00000000-0004-0000-0000-000051040000}"/>
+    <hyperlink ref="E407" r:id="rId1107" tooltip="Infogrames Entertainment, SA" display="https://en.wikipedia.org/wiki/Infogrames_Entertainment,_SA" xr:uid="{00000000-0004-0000-0000-000052040000}"/>
+    <hyperlink ref="C126" r:id="rId1108" tooltip="2000 in video gaming" display="https://en.wikipedia.org/wiki/2000_in_video_gaming" xr:uid="{00000000-0004-0000-0000-000053040000}"/>
+    <hyperlink ref="D126" r:id="rId1109" tooltip="Ubi Soft Entertainment" display="https://en.wikipedia.org/wiki/Ubi_Soft_Entertainment" xr:uid="{00000000-0004-0000-0000-000054040000}"/>
+    <hyperlink ref="E126" r:id="rId1110" tooltip="Ubi Soft Entertainment" display="https://en.wikipedia.org/wiki/Ubi_Soft_Entertainment" xr:uid="{00000000-0004-0000-0000-000055040000}"/>
+    <hyperlink ref="F126" r:id="rId1111" tooltip="Brazil" display="https://en.wikipedia.org/wiki/Brazil" xr:uid="{00000000-0004-0000-0000-000056040000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1112"/>
@@ -16416,7 +16447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD270"/>
   <sheetViews>
@@ -22496,9 +22527,9 @@
         <f t="shared" ca="1" si="47"/>
         <v>Enter</v>
       </c>
-      <c r="AC74">
+      <c r="AC74" t="str">
         <f>VLOOKUP(A74,Yaes!A:H,8,0)</f>
-        <v>0</v>
+        <v>y</v>
       </c>
       <c r="AD74">
         <f t="shared" si="46"/>
@@ -33109,9 +33140,9 @@
         <f ca="1">OFFSET(B204,0,AA204-1,1,1)</f>
         <v>Rift</v>
       </c>
-      <c r="AC204">
+      <c r="AC204" t="str">
         <f>VLOOKUP(A204,Yaes!A:H,8,0)</f>
-        <v>0</v>
+        <v>y</v>
       </c>
       <c r="AD204">
         <f t="shared" si="114"/>
@@ -38636,7 +38667,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD270">
+  <autoFilter ref="A1:AD270" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState ref="A2:AD270">
       <sortCondition ref="AB1:AB269"/>
     </sortState>
@@ -38646,7 +38677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
